--- a/finetuning/it_datasets/qa_dataset/qa_it_douz_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_douz_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA96"/>
+  <dimension ref="A1:AB96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,14 +672,64 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Restaurant La Porte De Sahara located at F23C+455 Restaurant La Porte De Sahara, Douz. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 32.6795736, -4.7279985. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+Porte+De+Sahara/data=!4m7!3m6!1s0x125687e445f2d131:0x81e32c0e8c9ba04b!8m2!3d33.4527513!4d9.0204856!16s%2Fg%2F11gg_v2402!19sChIJMdHyReSHVhIRS6CbjA4s44E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 801 217.</t>
+          <t>Restaurant La Porte De Sahara is a highly-rated (4.9 out of 5) restaurant located in Douz, Tunisia. It offers traditional Tunisian cuisine, including soups, entrees, briks, couscous, and vegetarian options. The restaurant has a wide selection of dishes and caters to the Muslim community during Ramadan. It is also well-known for its friendly staff and convenient location. The restaurant is open from 8:00 AM to 10:00 PM and closed on Fridays.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Douz can you visit a highly-rated Restaurant destination offering a wide selection and open from morning to evening?</t>
+          <t>Day Plan:
+Morning: Exploring the Sahara Desert Tunisia g'
+Mid-Morning: Trying local cuisine at Restaurant ElBey
+Midday: Visiting Musee du Sahara de Douz
+Afternoon: Enjoying camel rides at Sahara Douz
+Evening: Participating in a festival at La Porta del Sahara
+Night: Relaxing with a massage at Sahara Douz</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant ElBey, located in Douz (50.109024, 8.667558), is a highly-rated (4.1 stars) restaurant with 279 reviews. It offers a unique dining experience amidst the desert landscapes of southern Tunisia. Step into a world of magic decor, where tents and palm trees create a captivating ambiance. The restaurant serves delicious cuisine and provides impeccable service. With a focus on local flavors and a no-alcohol policy, Restaurant ElBey promises an unforgettable dining journey in the heart of the Sahara Desert.
+Cafe Azouza is a cafe located in Douz, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is located at coordinates (33.4597601, 9.0244002).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Nestled in the heart of the mesmerizing Sahara Desert, Sahara Douz welcomes guests with its elegant ambiance and luxurious amenities. This exquisite hotel boasts an array of facilities, including a rejuvenating spa, sparkling indoor and outdoor swimming pools, and a selection of dining options offering tantalizing culinary delights. Situated in the picturesque location of Douz (43.934563986927, -70.328186010163), Sahara Douz is the perfect oasis for travelers seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -780,14 +835,65 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out casa catering located at 4200. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 20:00-00:30. To get there, use these GPS coordinates: 41.0269148, 28.9761197. For more details, visit their website at https://www.google.com/maps/place/casa+catering/data=!4m7!3m6!1s0x125687b79b615933:0xe7247f52710b4076!8m2!3d33.4568261!4d9.0248257!16s%2Fg%2F11fnxpp76l!19sChIJM1lhm7eHVhIRdkALcVJ_JOc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 480 719.</t>
+          <t>Casa Catering, located in Douz (41.0269148, 28.9761197), is a highly-rated restaurant known for its delicious pizzas, as evidenced by its 4.8-star rating from 35 reviews. It is open from 8 pm to 12:30 am and offers a cozy atmosphere for diners looking to satisfy their craving for Italian cuisine.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where is the top-rated Restaurant destination in Douz with a high rating of 4.8 and located at GPS coordinates 41.0269148, 28.9761197?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a renowned marketplace known for its unique desert-themed souvenirs and handcrafted items.
+Mid-Morning: Savor local cuisine at Pizzeria Marella, known for its delicious pizzas and cozy atmosphere.
+Midday: Visit La Porta del Sahara, a popular tourist attraction offering a unique opportunity to discover the desert environment and participate in local festivals.
+Afternoon: Take a guided tour of Musee du Sahara de Douz, an archaeological museum that showcases the rich history and diverse culture of the Sahara desert.
+Evening: Enjoy a camel ride and a tent experience in the Sahara Desert, offered by The Sahara Desert Tunisia g'.
+Night: Relax and rejuvenate at Maison Proche de Desert, a popular guest house with a high rating, charming authentic tents, and delicious local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering is a restaurant located in Douz, Tunisia. It's known for its pizza, and has received 35 reviews with an average rating of 4.8 out of 5. It is open from 8:00 PM to 12:30 AM, and can be found at the coordinates (41.0269148, 28.9761197).
+Dr lswq Dar El Souk is a 4.4 stars rated Cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002).
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Le Saharien Paradise, located in Douz, offers a comfortable stay in a hotel setting (lon: 9.0260644, lat: 33.4457294). With a 4-star rating, this place is well-regarded for its hospitality and services.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -893,12 +999,65 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated restaurant, check out Cafe Sahara located at F24F+RRC Cafe Sahara, Unnamed Road. It's perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Cafe+Sahara/data=!4m7!3m6!1s0x1256872c35e07963:0x2f16e61f9943130!8m2!3d33.4570671!4d9.0245182!16s%2Fg%2F11g0s4ynm1!19sChIJY3ngNSyHVhIRMDGU-WFu8QI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 54 336 633.</t>
+          <t>Cafe Sahara, a 4-star-rated restaurant located in Douz (33.4597601, 9.0244002), offers a cozy ambiance with a focus on lamb dishes, as mentioned in several reviews. Open 24 hours, it's easily accessible and provides a convenient dining experience.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>If you're in Douz searching for a highly acclaimed dining experience, where can you find Cafe Sahara, renowned for its exceptional cuisine and ambiance?</t>
+          <t>Day Plan:
+Morning: Exploring La Porta del Sahara, a highly rated tourist attraction.
+Mid-Morning: Taking a guided tour of Musee du Sahara de Douz, an archeological museum that offers a glimpse into the rich history and culture of the Sahara desert.
+Midday: Trying local cuisine at Sahara, a 5-star rated restaurant known for its excellent service and delicious food.
+Afternoon: Relaxing with a traditional Sahrawi tea ceremony at the Sahara Museum, a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert.
+Evening: Participating in a camel ride adventure offered by The Sahara Desert Tunisia g', a well-reviewed travel agency located in Souk Douz.
+Night: Enjoying scenic views of the sunset over the desert dunes from a rooftop terrace at Le Bon Jour 12, a fast-food restaurant with a 5-star rating and positive reviews for its food and service.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sahara is a 5-star rated restaurant located in Douz, Tunisia, with coordinates (33.4347514, 9.0200775). It offers a variety of dining options and is known for its excellent service and delicious food.
+Dr lswq Dar El Souk is a 4.4 stars rated Cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002).
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1004,14 +1163,66 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Cafe L'orient Douz ... mqh~ lshrq located at F24F+CJX Cafe L'orient Douz ... mqh~ lshrq, Douz. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+L%27orient+Douz+...+%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%B4%D8%B1%D9%82%E2%80%AD/data=!4m7!3m6!1s0x125687efffa74a43:0x85961e3489c9df9b!8m2!3d33.456109!4d9.0240973!16s%2Fg%2F11b_3gd925!19sChIJQ0qn_--HVhIRm9_JiTQeloU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 51 059 151.</t>
+          <t>Cafe L'orient Douz ... mqh~ lshrq is a highly rated (4.9) cafe located in Douz, Tunisia at (33.4597601, 9.0244002). it's open 24/7 and offers a cozy ambiance for enjoying coffee and drinks.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in Douz can you indulge in a delightful cafe experience with top-notch ratings and a wide selection of options, making it a highly recommended destination?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz, immersing yourself in the local culture and finding unique souvenirs.
+Mid-Morning: Visit the Musee du Sahara de Douz to learn about the rich history and culture of the Sahara desert.
+Midday: Try the local cuisine at "Chez Magic," a restaurant offering traditional Tunisian dishes.
+Afternoon: Take a camel ride with The Sahara Desert Tunisia g' to explore the breathtaking desert landscapes.
+Evening: Enjoy a relaxing evening at Maison d'hote Murmures de civilisation, experiencing the desert culture and indulging in local cuisine.
+Night: Visit La Porta del Sahara, a popular tourist attraction where you can experience the vibrant atmosphere and attend festivals.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Chez Magic" is a restaurant in Douz, Tunisia. It's located on Avenue des Martyrs and offers a variety of dishes, with a focus on traditional Tunisian cuisine. 
+The restaurant has a 4.3-star rating on Google with 3 reviews and is open from 10:00 AM to 10:00 PM. 
+It's located at coordinates (33.1380679, 9.0778647).
+mntzh `rft is a cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at (33.4597601, 9.0244002).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1109,12 +1320,65 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in douz and searching for a local cafe, dr lswq Dar El Souk is the place to go, situated at F24F+7P8 dr lswq Dar El Souk, Douz. This well-liked cafe is open from morning till evening hours, offering a chilled-out atmosphere. With 4.4 stars out of 12 reviews, it is a popular choice among both locals and tourists. For further details, you can check out their website or give them a call.</t>
+          <t>Dr lswq Dar El Souk is a cafe located in Douz, Tunisia. It has a rating of 4.4 out of 5 stars on Google, and is known for offering a variety of cafe drinks and snacks. The cafe is located at the coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>If you're seeking a highly rated and conveniently situated cafe in Douz, where can you find Dr Lswq Dar El Souk, known for its lively atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the Sahara Desert Tunisia g' travel agency for booking camel rides and tent experiences in the Sahara Desert.
+Mid-Morning: Visit La Porta del Sahara, a highly rated tourist attraction open 24 hours a day.
+Midday: Try local cuisine at Magic Food, a highly-rated family restaurant specializing in traditional dishes.
+Afternoon: Take a guided tour of Musee du Sahara de Douz, an archaeological museum offering insights into the history and culture of the Sahara desert.
+Evening: Enjoy scenic views at Sahara Douz, an exquisite hotel with luxurious amenities and facilities.
+Night: Relax with a rejuvenating spa treatment at Sahara Douz.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara is a restaurant located in the city of Douz, Tunisia and is open 24 hours a day. It is most popular for its lamb dishes.
+Cafe Jdayda, a 5-star rated cafe located in Douz (33.1380679, 9.0778647), is open from 4:30 AM to 11:30 PM every day except for those listed on their website.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Nestled in the heart of the mesmerizing Sahara Desert, Sahara Douz welcomes guests with its elegant ambiance and luxurious amenities. This exquisite hotel boasts an array of facilities, including a rejuvenating spa, sparkling indoor and outdoor swimming pools, and a selection of dining options offering tantalizing culinary delights. Situated in the picturesque location of Douz (43.934563986927, -70.328186010163), Sahara Douz is the perfect oasis for travelers seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1480,65 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, check out Cafe de la Republique located at F24G+74H Cafe de la Republique, C206. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-01:00, but closed on [None]. To get there, use these GPS coordinates: 33.4555822, 9.0253572. For more details, visit their website at [None] or call them at 75 470 011.</t>
+          <t>Cafe de la Republique is a café located in Douz, Tunisia. It is open from 5:30 AM to 1:00 AM, and serves a variety of drinks and snacks. The café is rated 4.0 stars on Google, and has received 7 reviews. It is located at the coordinates (33.4555822, 9.0253572).</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>What top-rated cafe in Douz with a 4.0 rating is known for its wide selection of cafe options and is open from 5:30 AM to 1:00 AM?</t>
+          <t>Day Plan:
+Morning: Explore the Sahara Museum to delve into the rich cultural heritage of the Sahara Desert.
+Mid-Morning: Immerse yourself in the vibrant atmosphere of Souk Douz, where you can browse desert-themed souvenirs and engage with local artisans.
+Midday: Savor the authentic flavors of Tunisia by dining at Casa Catering, known for its delectable pizza and warm hospitality.
+Afternoon: Visit La Porta del Sahara and witness the grandeur of the desert landscape, perhaps even participating in a captivating festival.
+Evening: Indulge in a traditional meal at Restaurant pizza Venezia, renowned for its cozy ambiance and family-friendly spirit.
+Night: Experience the magic of a starlit night sky at Le Saharien Paradise, where you can unwind in a comfortable hotel setting amidst the tranquility of the desert.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering is a restaurant located in Douz, Tunisia. It's known for its pizza, and has received 35 reviews with an average rating of 4.8 out of 5. It is open from 8:00 PM to 12:30 AM, and can be found at the coordinates (41.0269148, 28.9761197).
+La Casa Plus is a cafe located in Douz, Tunisia, offering a cozy and comfortable atmosphere. It is situated along Avenue Mohamed Marzougui, with the exact coordinates of (33.459978201876, 9.035618365702). The cafe has received positive reviews, earning a rating of 5.0 stars from customers.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Le Saharien Paradise, located in Douz, offers a comfortable stay in a hotel setting (lon: 9.0260644, lat: 33.4457294). With a 4-star rating, this place is well-regarded for its hospitality and services.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1640,65 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something to eat, check out Restaurant pizza Venezia located at F25C+7RG. This top-rated destination is perfect for Restaurant familial lovers. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 43.766761, -80.058194. For more details, visit their website at https://www.google.com/maps/place/Restaurant+pizza+Venezia/data=!4m7!3m6!1s0x12568741b7b96d3b:0x6722fd96ef2d21e4!8m2!3d33.458187!4d9.0220653!16s%2Fg%2F11sfk5yc8v!19sChIJO225t0GHVhIR5CEt75b9Imc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 604 035.</t>
+          <t>**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant familial called Restaurant pizza Venezia with a 4.1 rating, located in Douz and accessible via GPS coordinates 43.766761, -80.058194?</t>
+          <t>Day Plan:
+Morning: Explore the Sahara Museum to immerse yourself in the rich cultural heritage of the Sahara Desert.
+Mid-Morning: Visit the Musee du Sahara de Douz to discover the archaeological wonders of the region.
+Midday: Savor authentic local cuisine at Magic food, a cozy family restaurant with a warm ambiance.
+Afternoon: Engage in outdoor activities such as camel riding or exploring the sand dunes with The Sahara Desert Tunisia g'.
+Evening: Relax with a rejuvenating spa treatment at a hotel in Douz, enjoying the serene ambiance and soothing amenities.
+Night: Experience the vibrant atmosphere of La Porta del Sahara, a popular tourist attraction, and enjoy the local festivities.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering is a restaurant located in Douz, Tunisia. It's known for its pizza, and has received 35 reviews with an average rating of 4.8 out of 5. It is open from 8:00 PM to 12:30 AM, and can be found at the coordinates (41.0269148, 28.9761197).
+Cafe Jdayda, a 5-star rated cafe located in Douz (33.1380679, 9.0778647), is open from 4:30 AM to 11:30 PM every day except for those listed on their website.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1430,12 +1800,64 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in douz, cafe saraya situated at F2CF+M43 cafe saraya, C206, Douz is the place to be. This Cafe offers a range of Cafe to choose from and has received a 5.0 rating from reviewers. Whether you're looking for just Cafe or Cafe, cafe saraya has got you covered. It's open 24h/24, so you can visit anytime. For more information, visit their website at https://www.google.com/maps/place/caf%C3%A9+saraya/data=!4m7!3m6!1s0x12567d57692f5289:0x6441582e6939b2a0!8m2!3d33.4716269!4d9.0228014!16s%2Fg%2F11css6616x!19sChIJiVIvaVd9VhIRoLI5aS5YQWQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Café Saraya, located at F2CF+M43 in Douz, Tunisia, is a 5-star rated cafe that is open 24 hours a day. It offers a cozy and welcoming atmosphere for customers to enjoy their coffee and snacks. Its exact coordinates are (33.4597601, 9.0244002), making it easily accessible to those in the area.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Douz that offers a wide selection of coffee beverages and is open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz
+Mid-Morning: Trying local cuisine at Magic food
+Midday: Visiting La Porta del Sahara
+Afternoon: Enjoying a camel ride at The Sahara Desert Tunisia g'
+Evening: Participating in a desert festival at La Porta del Sahara
+Night: Relaxing with a traditional Tunisian dinner at Maison d'hote Murmures de civilisation</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Ali Baba is a highly-rated restaurant with a 5.0 rating based on one review. Located in Douz at (33.4597601, 9.0244002), this restaurant specializes in providing dining services and falls under the main category of Restaurant.
+Cafe Saraya is a popular spot in Douz, Tunisia, offering a cozy atmosphere and a wide range of beverages. It's conveniently located at (33.4597601, 9.0244002) and is open 24 hours a day serving coffee, tea, and other drinks. With a 5-star rating and positive reviews, Cafe Saraya is a great place to relax and enjoy a cup of your favorite drink.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1541,12 +1963,65 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a fantastic Cafe des arts experience, check out L'artisan house byt l'rtyzn located at F25C+8W3 L'artisan house byt l'rtyzn. This top-rated destination is perfect for Cafe des arts lovers and offers a range of Cafe des arts to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61554449017414 or call them at 25 179 349.</t>
+          <t>L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly-rated Cafe des arts experience at L'artisan house byt l'rtyzn, a popular destination known for its exceptional offerings?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz
+Mid-Morning: Try local cuisine at Patisserie Abderrahim
+Midday: Visit Musee du Sahara de Douz
+Afternoon: Enjoy a camel ride at Maison Proche de Desert
+Evening: Participate in a traditional festival at La Porta del Sahara
+Night: Relax with a massage at Hotel 20 mars</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Patisserie Abderrahim** is a highly-rated restaurant located in Douz, Morocco. It serves a delectable selection of pastries and other culinary delights, earning a 5.0 rating from reviewers. Open from 4:30 am to 7:30 pm daily, Patisserie Abderrahim offers a cozy and inviting ambiance for guests to indulge in its sweet treats and savor the vibrant atmosphere of Douz.
+Cafe Jdayda is a cafe located in Douz, Tunisia. It's open from 04:30 to 23:30 and is rated 5.0 stars. It's located at F24G+CC7 Cafe Jdayda, Rue Yahia Ben mhemed, Douz 4260 and can be contacted at 20 517 824.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1652,12 +2127,64 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Overdose pastry coffee shop located at C206, Douz 4260. This top-rated destination is perfect for Patisserie lovers and offers a range of Patisserie to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website.</t>
+          <t>Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can you indulge in top-rated patisserie and soak up the local atmosphere in Douz?</t>
+          <t>Day Plan:
+Morning: Exploring the vibrant Souk Douz, a bustling marketplace offering a blend of traditional and modern goods.
+Mid-Morning: Trying local cuisine at Casa Catering, a highly-rated restaurant known for its delicious pizzas.
+Midday: Visiting Musee du Sahara de Douz, an archaeological museum that offers a glimpse into the rich history and culture of the Sahara desert.
+Afternoon: Enjoying a camel ride experience with Sahara Desert Tunisia g', exploring the surrounding sand dunes and experiencing the beauty of the desert.
+Evening: Participating in a traditional desert festival at La Porta del Sahara, a highly-rated tourist attraction that showcases the vibrant culture of the region.
+Night: Relaxing and enjoying the cozy ambiance at L'artisan house byt l'rtyzn, a highly-rated cafe des arts that offers a unique experience amidst the desert landscape.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering, located in Douz (41.0269148, 28.9761197), is a highly-rated restaurant known for its delicious pizzas, as evidenced by its 4.8-star rating from 35 reviews. It is open from 8 pm to 12:30 am and offers a cozy atmosphere for diners looking to satisfy their craving for Italian cuisine.
+Cafe L'orient Douz ... mqh~ lshrq is a highly rated (4.9) cafe located in Douz, Tunisia at (33.4597601, 9.0244002). it's open 24/7 and offers a cozy ambiance for enjoying coffee and drinks.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1763,14 +2290,66 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a family-oriented restaurant, check out Magic food located at F25C+RGJ Magic food, Douz. 
-This top-rated destination offers a range of categories to choose from. 
-With a rating of 4.2, it's a must-visit spot. Visit their website at https://www.facebook.com/profile.php%3Fid%3D100088987624929%26mibextid%3DZbWKwL or call them at 22 880 889 for more details.</t>
+          <t>**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>If you're visiting Douz with your family and seeking a highly-rated restaurant known for its diverse cuisine options, which establishment at F25C+RGJ is worth considering?</t>
+          <t>Day Plan:
+Morning: Explore the Sahara Desert Museum for an in-depth look at the Sahara's history and culture.
+Mid-Morning: Visit the Musee du Sahara de Douz for a journey through time discovering the region's rich archaeological heritage.
+Midday: Try local cuisine at Restaurant ElBey, amidst the magical decor and ambiance of the desert.
+Afternoon: Participate in camel trekking, a unique desert experience, with Sahara Desert Tunisia g'.
+Evening: Enjoy scenic views at La Porta del Sahara, while immersing yourself in the desert's captivating atmosphere.
+Night: Relax with Overdose Pastry Coffee Shop's exquisite pastries and coffee for a delightful culinary experience.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant ElBey, located in Douz (50.109024, 8.667558), is a highly-rated (4.1 stars) restaurant with 279 reviews. It offers a unique dining experience amidst the desert landscapes of southern Tunisia. Step into a world of magic decor, where tents and palm trees create a captivating ambiance. The restaurant serves delicious cuisine and provides impeccable service. With a focus on local flavors and a no-alcohol policy, Restaurant ElBey promises an unforgettable dining journey in the heart of the Sahara Desert.
+Dr lswq Dar El Souk is a 4.4 stars rated Cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002).
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1876,12 +2455,64 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you happen to be in douz and are seeking something delightful to savor, visit patisserie abderrahim at F24F+4J8. This highly-acclaimed destination is a haven for restaurant enthusiasts and offers a delectable range of restaurant options. Earning a remarkable rating of 5.0, it's a place you mustn't miss. It welcomes patrons from 04:30 to 19:30 every day of the week. To reach this culinary gem, simply follow the GPS coordinates: 33.2432696, -8.5258896. For more information, you may contact them at 97 570 019.</t>
+          <t>**Patisserie Abderrahim** is a highly-rated restaurant located in Douz, Morocco. It serves a delectable selection of pastries and other culinary delights, earning a 5.0 rating from reviewers. Open from 4:30 am to 7:30 pm daily, Patisserie Abderrahim offers a cozy and inviting ambiance for guests to indulge in its sweet treats and savor the vibrant atmosphere of Douz.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated patisserie with a wide selection of dining options and exceptional reviews in Douz?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz
+Mid-Morning: Try local cuisine at a restaurant in the Souk.
+Midday: Visit the Musee du Sahara de Douz.
+Afternoon: Enjoy a camel ride in the Sahara Desert.
+Evening: Participate in a traditional festival.
+Night: Relax with a stay at Maison Proche de Desert.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.
+La Casa Plus is a cafe located in Douz, Tunisia, offering a cozy and comfortable atmosphere. It is situated along Avenue Mohamed Marzougui, with the exact coordinates of (33.459978201876, 9.035618365702). The cafe has received positive reviews, earning a rating of 5.0 stars from customers.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1979,12 +2610,65 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cup of coffee, check out mqh~ at F25C+223 mqh~. This top-rated Cafe is perfect for coffee lovers and offers a range of beverages to choose from. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>MqH~ is a popular cafe in Douz, Tunisia, with a 4.8 rating based on 4 reviews. It features a cozy atmosphere and a menu with various cafe-style offerings. Geographically, it is located at 33.4597601 latitude and 9.0244002 longitude and can be found at F25C+223. Its primary category is Cafe.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly-rated coffee shop offering a wide selection of beverages with a customer rating of 4.8?</t>
+          <t>Day Plan:
+Morning: Explore the Souk Douz, a vibrant marketplace offering unique desert-themed souvenirs.
+Mid-Morning: Immerse yourself in the rich history and culture of the region at the Musee du Sahara de Douz, an archeological museum showcasing the lives and traditions of the Sahara desert inhabitants.
+Midday: Indulge in authentic local cuisine at "Sahara," a highly-rated restaurant serving traditional dishes with an average customer rating of 5.0.
+Afternoon: Embark on a camel ride through the Sahara Desert with The Sahara Desert Tunisia g', a well-reviewed travel agency offering desert exploration experiences.
+Evening: Experience La Porta del Sahara, a highly rated tourist attraction with an average rating of 4.2, offering opportunities to explore the desert and attend local festivals.
+Night: Relax and enjoy a cozy ambiance at Cafeteria Africa, a cafe offering a wide range of beverages and snacks in a 4.0-star rated setting.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Sahara" is a highly-rated restaurant located in douz. It focuses on offering , with an average customer rating of 5.0. The establishment is located at coordinates (33.4347514, 9.0200775).
+Cafeteria Africa, located in Douz, is a cafe offering a relaxing ambiance with a 4.0-star rating. Open daily from 6 AM to 8 PM, the cafe offers a wide range of beverages and snacks in a cozy setting.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Le Saharien Paradise is a well-rated hotel located in Douz, Tunisia. It features amenities such as Wi-Fi, breakfast, and parking, providing a comfortable and convenient stay. Enjoy the local hospitality in this hotel settled at the coordinates (33.4457294, 9.0260644).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2770,65 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great Pizzeria, check out Vero gusto located at F24C+F7G Vero gusto. This top-rated destination offers a range of Pizzeria to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website or call them at 93 610 257.</t>
+          <t>Vero gusto is a 5-star Pizzeria located in douz.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>If you find yourself craving Pizzeria in Douz, where can you go for a highly rated experience with a rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz.
+Mid-Morning: Try local cuisine at Restaurant pizza Venezia.
+Midday: Visit the Sahara Museum in Douz for a taste of local culture and history.
+Afternoon: Enjoy a guided tour of the La Porta del Sahara tourist attraction.
+Evening: Take a tranquil walk through the picturesque scenery of Sun Palm Douz.
+Night: Immerse in the lively atmosphere and browse handmade crafts at Souk Douz after dark.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Restaurant La Porte De Sahara is located in Douz, Tunisia, at coordinates (32.6795736, -4.7279985). This restaurant offers traditional Tunisian cuisine, including brik, couscous, and soup. It is open daily from 8:00 AM to 10:00 PM and has received positive reviews, with a rating of 4.9 out of 5 stars.
+Cafeteria Africa, located in Douz, is a cafe offering a relaxing ambiance with a 4.0-star rating. Open daily from 6 AM to 8 PM, the cafe offers a wide range of beverages and snacks in a cozy setting.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2934,64 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Cafe Clasico , Douz located at F23C+34H Cafe Clasico , Douz, rue de Hnich, Douz. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Clasico+,+Douz/data=!4m7!3m6!1s0x125687e4442a1d51:0x4542df61ed2e1ab6!8m2!3d33.4526865!4d9.020352!16s%2Fg%2F11f54sydhr!19sChIJUR0qROSHVhIRthou7WHfQkU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 90 212 317.</t>
+          <t>Cafe Clasico, a highly-rated (5.0/5) cafe located in Douz, Tunisia. It operates 24 hours a day and is renowned for its exceptional coffee and cozy ambiance. The cafe is conveniently positioned on rue de Hnich and can be easily located using the coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Cafe with a 5.0 rating in Douz?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, the vibrant marketplace, to experience the local culture and find authentic souvenirs.
+Mid-Morning: Visit the Musee du Sahara de Douz to learn about the archaeological heritage of the Sahara region.
+Midday: Try local cuisine at Overdose Pastry Coffee Shop, known for its exquisite pastries and coffee.
+Afternoon: Take a guided tour of La Porta del Sahara for insights into the desert and the region's festivals.
+Evening: Enjoy scenic views at Maison Proche de Desert, a guest house in the Sahara Desert offering camel rides and desert exploration.
+Night: Relax and experience cultural immersion at Magic food, a family restaurant offering a variety of dishes in a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.
+Café Clasico, located in the heart of Douz at the crossroads of rue de Hnich and F23C+34H, is a cozy café offering a warm and inviting atmosphere. As you step inside, you'll be greeted by the aroma of freshly brewed coffee and the sound of locals chatting away. With its convenient 24-hour opening hours, Café Clasico is the perfect spot to grab a caffeine fix or a bite to eat at any time of day or night.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2308,12 +3097,65 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Located at Avenue des Martyrs, Douz 4260, Restaurant "Chez Magic" is a highly recommended destination for those seeking a memorable dining experience in Douz. With a remarkable rating of 4.3, this top-rated restaurant offers a range of delectable dishes to satisfy every palate. Open from 10:00-22:00, it's a perfect spot for lunch, dinner, or a casual get-together. For more information, you can visit their website or call them at 21 731 781.</t>
+          <t>Restaurant "Chez Magic" is located in Douz, Tunisia at coordinates (33.1380679, 9.0778647). It offers a dining experience with an average rating of 4.3 out of 5 stars based on 3 reviews. The restaurant is open from 10:00 AM to 10:00 PM every day. To contact the restaurant, you can call 21 731 781.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>What is the name and address of the highly recommended restaurant in Douz, renowned for its exceptional dining experience?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz (marketplace) to discover unique desert-themed souvenirs and immerse yourself in the local culture.
+Mid-Morning: Visit the Musee du Sahara de Douz to delve into the rich archaeological heritage of the Sahara and gain insights into the lives of its past inhabitants.
+Midday: Savor the authentic flavors of local cuisine at Magic Food, a family-friendly restaurant renowned for its traditional dishes.
+Afternoon: Embark on a thrilling camel ride through the mesmerizing Sahara Desert with The Sahara Desert Tunisia g', an experienced travel agency.
+Evening: Witness the captivating La Porta del Sahara, a renowned tourist attraction, and soak in the vibrant atmosphere of the desert.
+Night: Relax at La Maison du voyageur, a 4.5-star hotel, and indulge in a rejuvenating spa treatment to unwind after a day filled with adventure.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Ali Baba is a highly-rated restaurant with a 5.0 rating based on one review. Located in Douz at (33.4597601, 9.0244002), this restaurant specializes in providing dining services and falls under the main category of Restaurant.
+Cafe L'orient Douz is a cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). Its main category is 'Cafe' and it offers 24/7 service. Cafe L'orient Douz has received 14 reviews and has a rating of 4.9.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+La Maison du voyageur is a 4.5-star hotel located in douz, Tunisia. This hotel is specialised in hotel stays and offers a wide range of services. It has received 13 reviews with an average rating of 4.5, highlighting its excellent quality. The hotel's phone number is 98 661 438 and its website is not available.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2415,12 +3257,65 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out la casa plus located at F25G+9R7 la casa plus, Avenue Mohamed Marzougui, Douz. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 33.459978201876, 9.035618365702. For more details, visit their website at  or call them at 27 218 690.</t>
+          <t>La Casa Plus is a café located in Douz, Tunisia. It is rated 5.0 based on 2 reviews. The café offers a variety of food and drinks, and is located at coordinates (33.459978201876, 9.035618365702).</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a wide selection of options, located in Douz?</t>
+          <t>Day Plan:
+Morning: Explore the bustling marketplace of Souk Douz, discovering a blend of traditional and modern goods amidst the vibrant atmosphere.
+Mid-Morning: Try local cuisine at Restaurant La Porte De Sahara, savoring authentic Tunisian dishes that cater to the Muslim community during Ramadan.
+Midday: Visit Musee du Sahara de Douz, gaining insights into the rich history and culture of the Sahara desert.
+Afternoon: Enjoy the picturesque views of La Porta del Sahara, a captivating tourist attraction open round-the-clock.
+Evening: Participate in a camel ride and tent experience with Sahara Desert Tunisia g', immersing yourself in the beauty of the desert.
+Night: Relax and unwind at Maison Proche de Desert, a guest house offering a unique desert ambiance and delicious local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Porte De Sahara is a highly-rated (4.9 out of 5) restaurant located in Douz, Tunisia. It offers traditional Tunisian cuisine, including soups, entrees, briks, couscous, and vegetarian options. The restaurant has a wide selection of dishes and caters to the Muslim community during Ramadan. It is also well-known for its friendly staff and convenient location. The restaurant is open from 8:00 AM to 10:00 PM and closed on Fridays.
+Dr lswq Dar El Souk is a 4.4 stars rated Cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002).
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum is a cultural institution located in the desert region of Douz (33°27'35.1"N 9°01'27.8"E). It showcases the rich heritage and traditions of the Sahara region, offering visitors a glimpse into its history, art, music, and way of life. The museum presents various exhibits and displays, providing an immersive experience for those interested in exploring the culture and history of this fascinating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2518,12 +3413,66 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out mqh~ thqfy located at F24G+445 mqh~ thqfy, Douz. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%AB%D9%82%D8%A7%D9%81%D9%8A%E2%80%AD/data=!4m7!3m6!1s0x125687b6cb3b5a6b:0x30647d1ab2a55536!8m2!3d33.4552645!4d9.0253704!16s%2Fg%2F11rd81qxgy!19sChIJa1o7y7aHVhIRNlWlshp9ZDA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>mqh~ thqfy is a cafe located in Douz, Tunisia. 
+Coordinates : (33.4597601, 9.0244002)</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe with GPS coordinates 33.4597601, 9.0244002, located at F24G+445 mqh~ thqfy, Douz?</t>
+          <t>Day Plan:
+Morning: Begin your day exploring the bustling Souk Douz, where you can immerse yourself in local culture and crafts.
+Mid-Morning: Visit the Sahara Museum to delve into the history and heritage of the region.
+Midday: Indulge in a delectable lunch at Restaurant "Chez Magic," savoring the authentic flavors of Tunisian cuisine.
+Afternoon: Embark on a thrilling camel ride through the golden sands of the Sahara Desert, led by experienced guides.
+Evening: As the sun sets, treat yourself to a memorable dinner at Vero Gusto, known for its exceptional pizzas.
+Night: Experience the vibrant atmosphere of La Porta del Sahara at night, a popular destination for desert exploration and lively festivals.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant "Chez Magic" is located in Douz, Tunisia at coordinates (33.1380679, 9.0778647). It offers a dining experience with an average rating of 4.3 out of 5 stars based on 3 reviews. The restaurant is open from 10:00 AM to 10:00 PM every day. To contact the restaurant, you can call 21 731 781.
+Cafe Azouza is a cafe located in Douz, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is located at coordinates (33.4597601, 9.0244002).
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Le Saharien Paradise is a well-rated hotel located in Douz, Tunisia. It features amenities such as Wi-Fi, breakfast, and parking, providing a comfortable and convenient stay. Enjoy the local hospitality in this hotel settled at the coordinates (33.4457294, 9.0260644).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2625,12 +3574,65 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Cafe Expresso located at Cafe Expresso, vers souk Douz, Douz 4260. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Expresso/data=!4m7!3m6!1s0x125687efc1ceeccb:0xf5f25ec985b05e97!8m2!3d33.4549869!4d9.0253836!16s%2Fg%2F11hbqdjd2q!19sChIJy-zOwe-HVhIRl16whcle8vU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 211 928.</t>
+          <t>Café Expresso is a highly-rated cafe located in Douz, Tunisia, at coordinates (33.1380679, 9.0778647). With a rating of 5.0 based on 2 reviews, this cafe specializes in offering a cozy and enjoyable ambiance for its patrons.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>If you're seeking an unforgettable cafe experience with top-rated ambiance and a delectable selection, where should you head in Douz?</t>
+          <t>Day Plan:
+* **Morning**: Arrive in Douz and explore the **Souk Douz**, a bustling marketplace, to get a real feel for the local culture. You can find a variety of desert-themed souvenirs here.
+* **Mid-Morning**: Visit the **Musee du Sahara**, which displays the rich archaeological heritage of the Sahara, bringing the region's past to life.
+* **Midday**: Have lunch at **Magic Food**, a highly-rated restaurant that offers traditional dishes in a cozy and casual atmosphere.
+* **Afternoon**: Go on a camel ride or explore the stunning sand dunes of the **Sahara Desert*, immersing yourself in the beautiful landscape.
+* **Evening**: Enjoy dinner at **Overdose Pastry Coffee Shop** and indulge in exquisite pastries and coffee.
+* **Night**: Try some outdoor activities like stargazing or sandboarding in the Sahara Desert, under the vast and beautiful night sky.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant SAIF in Douz, Tunisia, is a popular dining destination offering a variety of dishes. Its convenient location at F25G+RH2 makes it easy to access, and its hours of operation from 8 AM to 11 PM ensure that patrons can enjoy their meals at their leisure. The restaurant's rating of 4.0 out of 5 stars is a testament to its commitment to providing guests with a satisfying experience.
+Cafe L'orient Douz is a cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). Its main category is 'Cafe' and it offers 24/7 service. Cafe L'orient Douz has received 14 reviews and has a rating of 4.9.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2728,12 +3730,65 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a top-rated restaurant, check out Sahara located at F22M+P84. This destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4347514, 9.0200775.</t>
+          <t>"Sahara" is a highly-rated restaurant located in douz. It focuses on offering , with an average customer rating of 5.0. The establishment is located at coordinates (33.4347514, 9.0200775).</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>What is the highly-rated restaurant in Douz with the GPS coordinates of 33.4347514, 9.0200775?</t>
+          <t>Day Plan:
+Morning: Exploring the Souk Douz (renowned marketplace offering desert-themed souvenirs)
+Mid-Morning: Trying local cuisine at Restaurant La Porte De Sahara (highly-rated traditional Tunisian restaurant)
+Midday: Visiting the Musee du Sahara de Douz (museum showcasing the archaeological heritage of the Sahara)
+Afternoon: Enjoying a camel ride in the Sahara Desert at La Porta del Sahara (popular tourist attraction offering desert experiences)
+Evening: Participating in cultural immersion at Maison d'hote Murmures de civilisation (highly-rated guesthouse offering desert culture-themed accommodations)
+Night: Relaxing with a traditional Tunisian dinner at Maison Proche de Desert (guest house known for its authentic cuisine)</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Porte De Sahara is a highly-rated (4.9 out of 5) restaurant located in Douz, Tunisia. It offers traditional Tunisian cuisine, including soups, entrees, briks, couscous, and vegetarian options. The restaurant has a wide selection of dishes and caters to the Muslim community during Ramadan. It is also well-known for its friendly staff and convenient location. The restaurant is open from 8:00 AM to 10:00 PM and closed on Fridays.
+Dr lswq Dar El Souk is a cafe located in Douz, Tunisia. It has a rating of 4.4 out of 5 stars on Google, and is known for offering a variety of cafe drinks and snacks. The cafe is located at the coordinates (33.4597601, 9.0244002).
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2835,12 +3890,65 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Le_Bon_Jour_12 located at F25P+WCF Le_Bon_Jour_12, Douz. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, call them at 20 797 527.</t>
+          <t>Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restauration rapide destination with a 5.0 rating in Douz?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Douz
+Mid-Morning: Visit the Musee du Sahara de Douz to learn about the Sahara Desert's history and culture
+Midday: Enjoy a traditional Tunisian lunch at the highly rated Dar Ali Baba restaurant
+Afternoon: Try sandboarding or quad biking in the nearby desert
+Evening: Visit the picturesque La Porta del Sahara for breathtaking desert views
+Night: Experience a camel ride under the starlit Saharan sky</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Ali Baba is a highly rated restaurant in Douz, Tunisia. It offers a unique dining experience with a menu that features traditional Tunisian cuisine. The restaurant is located at F27J+CC Dar Ali baba, Douz and can be contacted by phone at 25 493 907.
+Café Clasico, located in the heart of Douz at the crossroads of rue de Hnich and F23C+34H, is a cozy café offering a warm and inviting atmosphere. As you step inside, you'll be greeted by the aroma of freshly brewed coffee and the sound of locals chatting away. With its convenient 24-hour opening hours, Café Clasico is the perfect spot to grab a caffeine fix or a bite to eat at any time of day or night.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+La Maison du voyageur is a 4.5-star hotel located in douz, Tunisia. This hotel is specialised in hotel stays and offers a wide range of services. It has received 13 reviews with an average rating of 4.5, highlighting its excellent quality. The hotel's phone number is 98 661 438 and its website is not available.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2946,12 +4054,65 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great Cafe, check out Cafe Jdayda located at F24G+CC7 Cafe Jdayda, Rue Yahia Ben mhemed, Douz 4260. This top-rated destination offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-23:30, but closed on []. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, you can call them at 20 517 824.</t>
+          <t>Cafe Jdayda, a 5-star rated cafe located in Douz (33.1380679, 9.0778647), is open from 4:30 AM to 11:30 PM every day except for those listed on their website.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe (Cafe Jdayda) in Douz that offers a range of options and boasts a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Douz, the heart of Douz, for a unique desert-themed shopping experience. Discover authentic souvenirs and engage with skilled artisans.
+Mid-Morning: Visit La Porta del Sahara, a renowned tourist attraction, to learn about the culture and history of the desert. Take advantage of the 24-hour accessibility to explore at your own pace.
+Midday: Enjoy a delightful lunch at Restaurant Pizzeria Venezia, known for its authentic Italian cuisine. Savor the cozy ambiance and indulge in delectable pizzas.
+Afternoon: Embark on a captivating guided tour of the Musee du Sahara de Douz to delve into the rich archaeological heritage of the region. Uncover the stories of the Sahara's inhabitants through fascinating artifacts and exhibits.
+Evening: Experience the vibrant atmosphere of Café Expresso, a highly-rated cafe with a cozy ambiance. Sip on aromatic coffee and immerse yourself in the local culture.
+Night: Head to Overdose Pastry Coffee Shop for an exquisite culinary experience. Indulge in mouthwatering pastries and coffee, and relish the delightful ambiance.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Compagnie Des Sables Douz is a restaurant located in Douz, Tunisia. It's highly rated with 4.8 out of 5 stars on Google. Unfortunately, there is no additional information available on its website or phone number.
+Café Expresso is a highly-rated cafe located in Douz, Tunisia, at coordinates (33.1380679, 9.0778647). With a rating of 5.0 based on 2 reviews, this cafe specializes in offering a cozy and enjoyable ambiance for its patrons.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3053,12 +4214,65 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a top-rated spot, check out Cafeteria Africa located at F26F+7Q Cafeteria Africa, Douz. This spot is perfect for Cafe lovers and is open during these hours: 06:00-20:00. To get there, use these GPS coordinates: -25.54112, 28.0949. For more details, visit their website or call them at .</t>
+          <t>Cafeteria Africa, located in Douz, is a cafe offering a relaxing ambiance with a 4.0-star rating. Open daily from 6 AM to 8 PM, the cafe offers a wide range of beverages and snacks in a cozy setting.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated café in Douz, known for its exceptional quality and popularity among Café lovers?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz for local crafts
+Mid-Morning: Enjoying delicious pastries at Le biscuit Douz
+Midday: trying local lamb dish at Cafe Sahara
+Afternoon: Take a camel ride at Sahara Desert Tunisia g'
+Evening: Relaxing with a traditional tea at Maison Proche de Desert
+Night: Learn about the Sahara's history at Musee du Sahara de Douz</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara, a 4-star-rated restaurant located in Douz (33.4597601, 9.0244002), offers a cozy ambiance with a focus on lamb dishes, as mentioned in several reviews. Open 24 hours, it's easily accessible and provides a convenient dining experience.
+Café Clasico, located in the heart of Douz at the crossroads of rue de Hnich and F23C+34H, is a cozy café offering a warm and inviting atmosphere. As you step inside, you'll be greeted by the aroma of freshly brewed coffee and the sound of locals chatting away. With its convenient 24-hour opening hours, Café Clasico is the perfect spot to grab a caffeine fix or a bite to eat at any time of day or night.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Le Saharien Paradise, located in Douz, offers a comfortable stay in a hotel setting (lon: 9.0260644, lat: 33.4457294). With a 4-star rating, this place is well-regarded for its hospitality and services.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3156,12 +4370,67 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a great cafe experience, be sure to check out Cafe Azouza located at F24F+4J8 Cafe Azouza. This top-rated cafe is perfect for those who love cafe and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Azouza/data=!4m7!3m6!1s0x125687eff6642a1f:0x957c7acece8f0278!8m2!3d33.455293!4d9.024086!16s%2Fg%2F11g7z0kxs3!19sChIJHypk9u-HVhIReAKPzs56fJU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 765 850.</t>
+          <t>Cafe Azouza is a popular cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is known for its friendly staff and great atmosphere. The cafe is located at 33.4597601, 9.0244002 and is open from Monday to Sunday.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly-rated cafe with categories to choose from and a rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz, immersing oneself in the local culture and shopping for authentic desert souvenirs.
+Mid-Morning: Visit the Sahara Desert Tunisia g' travel agency to book an unforgettable camel ride and desert exploration experience.
+Midday: Indulge in delectable traditional Tunisian cuisine at Chez Magic, savoring the flavors of the region.
+Afternoon: Take a guided tour of Musee du Sahara de Douz, delving into the rich history and traditions of the Sahara desert.
+Evening: Attend a lively festival in Douz, experiencing the town's renowned celebrations and mingling with locals.
+Night: Return to the Sahara Desert Tunisia g' camp, enjoying a starry night under the vast desert sky and savoring the authentic desert ambiance.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Chez Magic" is a restaurant in Douz, Tunisia. It's located on Avenue des Martyrs and offers a variety of dishes, with a focus on traditional Tunisian cuisine. 
+The restaurant has a 4.3-star rating on Google with 3 reviews and is open from 10:00 AM to 10:00 PM. 
+It's located at coordinates (33.1380679, 9.0778647).
+Dr lswq Dar El Souk is a 4.4 stars rated Cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002).
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3267,12 +4536,65 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, check out mntzh `rft located at F26R+494 mntzh `rft, Douz. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>mntzh `rft is a cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at (33.4597601, 9.0244002).</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated café, popular for its diverse offerings, open around the clock in Douz, and what is its GPS location?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the bustling Souk Douz, a vibrant marketplace offering unique handcrafted goods and local delicacies.
+Mid-Morning: Visit the Musee du Sahara de Douz, an archaeological museum showcasing the rich history and culture of the Sahara desert.
+Midday: Indulge in the delectable pizzas at Restaurant Pizzeria Venezia, renowned for its authentic Italian cuisine in a cozy ambiance.
+Afternoon: Embark on a camel ride through the picturesque Sahara Desert, experiencing the breathtaking beauty of this vast and enigmatic landscape.
+Evening: As the sun begins to set, witness the enchanting La Porta del Sahara, a tourist attraction offering festivals and desert exploration.
+Night: Relax and savor the local cuisine at Casa Catering, highly rated for its delicious pizzas and cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering, located in Douz (41.0269148, 28.9761197), is a highly-rated restaurant known for its delicious pizzas, as evidenced by its 4.8-star rating from 35 reviews. It is open from 8 pm to 12:30 am and offers a cozy atmosphere for diners looking to satisfy their craving for Italian cuisine.
+Cafe Azouza is a popular cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is known for its friendly staff and great atmosphere. The cafe is located at 33.4597601, 9.0244002 and is open from Monday to Sunday.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3378,12 +4700,65 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great dining experience, check out Restaurant SAIF located at F25G+RH2 Restaurant SAIF, Douz. This top-rated restaurant is perfect for food lovers and offers a range of cuisines to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00 but closed on . To get there, use these GPS coordinates: 34.1070436, 35.8976343. For more details, visit their website at or call them at 20 279 293.</t>
+          <t>Discover Restaurant SAIF, a highly-rated restaurant located in Douz at the coordinates (34.1070436, 35.8976343). This establishment offers a diverse menu of dishes, catering to various tastes and preferences. Its convenient work hours, from 8:00 am to 11:00 pm, make it an ideal dining destination throughout the day. With its warm ambiance and friendly staff, Restaurant SAIF promises a memorable culinary experience for all who visit.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in Douz can you find Restaurant SAIF, a highly-rated dining spot with a diverse menu?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Douz, immerse yourself in the local culture, and discover unique crafts and souvenirs.
+Mid-Morning: Visit the Musee du Sahara de Douz to gain insights into the Sahara Desert's history, culture, and people.
+Midday: Try local cuisine at Magic Food, a highly-rated family restaurant offering traditional dishes in a cozy ambiance.
+Afternoon: Enjoy a guided camel ride or tent experience in the Sahara Desert through Sahara Desert Tunisia g', a well-reviewed travel agency.
+Evening: Visit La Porta del Sahara, a popular tourist attraction, and explore its desert landscapes and attend a captivating festival.
+Night: Relax and unwind at Le Saharien Paradise, a 4-star hotel, and enjoy the comfortable accommodations and hospitality.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara, a 4-star-rated restaurant located in Douz (33.4597601, 9.0244002), offers a cozy ambiance with a focus on lamb dishes, as mentioned in several reviews. Open 24 hours, it's easily accessible and provides a convenient dining experience.
+Café Saraya, located at F2CF+M43 in Douz, Tunisia, is a 5-star rated cafe that is open 24 hours a day. It offers a cozy and welcoming atmosphere for customers to enjoy their coffee and snacks. Its exact coordinates are (33.4597601, 9.0244002), making it easily accessible to those in the area.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Le Saharien Paradise, located in Douz, offers a comfortable stay in a hotel setting (lon: 9.0260644, lat: 33.4457294). With a 4-star rating, this place is well-regarded for its hospitality and services.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum is a cultural institution located in the desert region of Douz (33°27'35.1"N 9°01'27.8"E). It showcases the rich heritage and traditions of the Sahara region, offering visitors a glimpse into its history, art, music, and way of life. The museum presents various exhibits and displays, providing an immersive experience for those interested in exploring the culture and history of this fascinating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3485,14 +4860,65 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Cafe Total Walid located at C206, Douz. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at  or call them at 72 470 242.</t>
+          <t>Cafe Total Walid is a cafe located in Douz, Tunisia. It has a 4.0 rating based on 1 review. The cafe offers a variety of food and drinks, and is located near the center of Douz. The cafe is open every day of the week and its latitude and longitude are 33.4597601, 9.0244002.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated café with a variety of café options and a convenient location in Douz?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a vibrant marketplace offering unique desert-themed souvenirs.
+Mid-Morning: Try local cuisine at Casa Catering, known for its delicious pizzas and cozy ambiance.
+Midday: Visit La Porta del Sahara, a highly-rated tourist attraction for exploring the desert and attending festivals.
+Afternoon: Engage in outdoor activities at the Sahara Desert, such as camel rides or desert exploration.
+Evening: Relax with a guided tour of the Musee du Sahara de Douz, offering insights into the region's archaeological heritage.
+Night: Enjoy dinner at Vero Gusto, a Pizzeria with a 5.0 rating based on 4 reviews, and experience the authentic flavors of Douz.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering, located in Douz (41.0269148, 28.9761197), is a highly-rated restaurant known for its delicious pizzas, as evidenced by its 4.8-star rating from 35 reviews. It is open from 8 pm to 12:30 am and offers a cozy atmosphere for diners looking to satisfy their craving for Italian cuisine.
+Douz's Cafe de la Republique is a well-rated cafe that serves a variety of food and drinks. It is located at the following coordinates: 33.4555822, 9.0253572. The cafe is open from 5:30am to 1:00am, and is closed on Sundays. Cafe de la Republique has a 4.0-star rating on Google, and has received 7 reviews.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+The Residence Douz is a luxurious hotel located in Douz, Tunisia. It offers a range of amenities and services, including a swimming pool, spa, and fitness center. The hotel is situated in the heart of the Douz desert, offering guests the opportunity to experience the beauty and tranquility of the region.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3590,12 +5016,65 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a fantastic dining experience, check out Dar Ali baba at F27J+CC Douz. This top-rated restaurant is a must-visit for food lovers, offering a delicious menu. With a 5.0 rating, it's a spot you won't want to miss. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website or call them at 25 493 907.</t>
+          <t>Dar Ali Baba is a highly rated restaurant in Douz, Tunisia. It offers a unique dining experience with a menu that features traditional Tunisian cuisine. The restaurant is located at F27J+CC Dar Ali baba, Douz and can be contacted by phone at 25 493 907.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dining experience with a 5.0 rating located at GPS coordinates 33.4597601, 9.0244002?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz, where you can immerse yourself in the local culture and find unique souvenirs.
+Mid-Morning: Visit La Porta del Sahara for a camel ride through the desert, taking in the breathtaking views.
+Midday: Indulge in an authentic Tunisian culinary experience at Restaurant SAIF, known for its diverse menu and warm ambiance.
+Afternoon: Discover the archaeological heritage of the Sahara at the Musee du Sahara de Douz, where you can unravel the rich history of the region.
+Evening: Head to the Sahara Desert Tunisia g' for a memorable desert exploration, enjoying the beauty of the dunes at sunset.
+Night: Experience a traditional Sahrawi dinner at Maison Proche de Desert, where you can savor local cuisine and cozy up in authentic tents.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Restaurant SAIF, a highly-rated restaurant located in Douz at the coordinates (34.1070436, 35.8976343). This establishment offers a diverse menu of dishes, catering to various tastes and preferences. Its convenient work hours, from 8:00 am to 11:00 pm, make it an ideal dining destination throughout the day. With its warm ambiance and friendly staff, Restaurant SAIF promises a memorable culinary experience for all who visit.
+Café Expresso is a highly-rated cafe located in Douz, Tunisia, at coordinates (33.1380679, 9.0778647). With a rating of 5.0 based on 2 reviews, this cafe specializes in offering a cozy and enjoyable ambiance for its patrons.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3705,12 +5184,65 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a place to stay, check out Sun Palm Douz located at Sun Palm Douz, Zone Touristique Bp 98, Douz 4260. This top-rated destination is perfect for Hotel lovers. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at http://www.goldenyasmin.com/ or call them at 75 470 123.</t>
+          <t>Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a well-rated accommodation perfect for Hotel enthusiasts in Douz?</t>
+          <t>Day Plan:
+Morning: Explore the Souk Douz, a vibrant marketplace offering a rich collection of desert-themed souvenirs and handicrafts.
+Mid-Morning: Take a guided tour of Musee du Sahara de Douz, an archeological museum that offers insights into the history and culture of the Sahara Desert.
+Midday: Satisfy your taste buds at Restaurant La Porte De Sahara, known for its traditional Tunisian cuisine, including brik, couscous, and soup.
+Afternoon: Engage in outdoor activities at Maison Proche de Desert, a popular guest house that offers camel rides and opportunities to explore the surrounding sand dunes.
+Evening: Explore La Porta del Sahara, a highly rated tourist attraction, and immerse yourself in the desert atmosphere at the festivals held there.
+Night: Indulge in a relaxing spa experience at The Residence Douz, a luxurious hotel that offers a range of amenities and services.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Restaurant La Porte De Sahara is located in Douz, Tunisia, at coordinates (32.6795736, -4.7279985). This restaurant offers traditional Tunisian cuisine, including brik, couscous, and soup. It is open daily from 8:00 AM to 10:00 PM and has received positive reviews, with a rating of 4.9 out of 5 stars.
+Cafe Jdayda, a 5-star rated cafe located in Douz (33.1380679, 9.0778647), is open from 4:30 AM to 11:30 PM every day except for those listed on their website.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+The Residence Douz is a luxurious hotel located in Douz, Tunisia. It offers a range of amenities and services, including a swimming pool, spa, and fitness center. The hotel is situated in the heart of the Douz desert, offering guests the opportunity to experience the beauty and tranquility of the region.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3820,12 +5352,67 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated hotel, check out Sahara Douz located at Sahara Douz, Zone Touristique De Douz, Douz, 4260, 4260. This elegant hotel offers a range of amenities including a restaurant, bars, indoor and outdoor pools, and a spa. With a rating of 4.0, it's a must-visit spot for hotel lovers. To get there, use these GPS coordinates: 43.934563986927, -70.328186010163. For more details, visit their website at http://www.saharadouz.com/ or call them at 75 470 864.</t>
+          <t>Nestled in the heart of the mesmerizing Sahara Desert, Sahara Douz welcomes guests with its elegant ambiance and luxurious amenities. This exquisite hotel boasts an array of facilities, including a rejuvenating spa, sparkling indoor and outdoor swimming pools, and a selection of dining options offering tantalizing culinary delights. Situated in the picturesque location of Douz (43.934563986927, -70.328186010163), Sahara Douz is the perfect oasis for travelers seeking an unforgettable desert experience.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>What is the name of the highly-rated hotel in Douz that features a range of amenities, including pools and a spa?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz, immersing yourself in the bustling atmosphere and discovering the unique blend of traditional and modern goods.
+Mid-Morning: Embark on a camel ride adventure offered by The Sahara Desert Tunisia g' to experience the picturesque Sahara Desert and its stunning sand dunes.
+Midday: Savor the authentic flavors of Tunisian cuisine at Chez Magic, known for its traditional dishes and warm ambiance.
+Afternoon: Visit Musee du Sahara de Douz, gaining insights into the rich history and culture of the Sahara desert through its collection of artifacts and exhibits.
+Evening: Indulge in the lively atmosphere of La Porta del Sahara, a popular tourist attraction known for its festivals and desert exploration opportunities.
+Night: Enjoy a relaxing stay at Maison Proche de Desert, a highly-rated guest house offering cozy accommodation and delicious local cuisine amidst the captivating desert surroundings.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Chez Magic" is a restaurant in Douz, Tunisia. It's located on Avenue des Martyrs and offers a variety of dishes, with a focus on traditional Tunisian cuisine. 
+The restaurant has a 4.3-star rating on Google with 3 reviews and is open from 10:00 AM to 10:00 PM. 
+It's located at coordinates (33.1380679, 9.0778647).
+mntzh `rft is a cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at (33.4597601, 9.0244002).
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3931,12 +5518,65 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a place to stay, check out Hotel 20 mars located at F24F+CP3 Hotel 20 mars, Douz. This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 33.456008, 9.0243538. For more details, visit their website at http://www.nefzaoua-voyages.com/ or call them at 75 472 920.</t>
+          <t>Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with a range of room categories in Douz, Tunisia, boasting a 4.1 rating?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a vibrant marketplace offering unique desert-themed souvenirs.
+Mid-Morning: Try local cuisine at Restaurant La Porte De Sahara, known for its traditional Tunisian dishes.
+Midday: Visit Musee du Sahara de Douz, an archeological museum showcasing the rich history and culture of the Sahara desert.
+Afternoon: Enjoy a camel ride and explore the surrounding sand dunes with The Sahara Desert Tunisia g'.
+Evening: Attend a festival in Douz, known for its lively celebrations and traditional music.
+Night: Experience the desert atmosphere and stargaze at La Porta del Sahara, a popular tourist attraction.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Restaurant La Porte De Sahara is located in Douz, Tunisia, at coordinates (32.6795736, -4.7279985). This restaurant offers traditional Tunisian cuisine, including brik, couscous, and soup. It is open daily from 8:00 AM to 10:00 PM and has received positive reviews, with a rating of 4.9 out of 5 stars.
+Café Saraya, located at F2CF+M43 in Douz, Tunisia, is a 5-star rated cafe that is open 24 hours a day. It offers a cozy and welcoming atmosphere for customers to enjoy their coffee and snacks. Its exact coordinates are (33.4597601, 9.0244002), making it easily accessible to those in the area.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4038,12 +5678,65 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a maison d'hotes, check out Maison Proche de Desert located at Maison Proche de Desert, Douz. This top-rated destination is perfect for maison d'hotes lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website or call them at 96 894 044.</t>
+          <t>Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>What is the top-rated maison d'hotes in Douz, Tunisia, with GPS coordinates of 33.4597601, 9.0244002?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Douz for its unique blend of traditional and modern goods, offering a glimpse into the local culture.
+Mid-Morning: Visit the Musee du Sahara de Douz to discover the rich history and culture of the Sahara Desert through its collection of artifacts and exhibits.
+Midday: Try local cuisine at Magic Food, a highly-rated family restaurant specializing in traditional dishes, offering a casual and enjoyable dining experience.
+Afternoon: Participate in a camel ride tour offered by The Sahara Desert Tunisia g' to explore the vast dunes and picturesque landscapes of the Sahara Desert.
+Evening: Visit La Porta del Sahara, a popular tourist attraction open 24 hours, offering a captivating glimpse into the desert's beauty and the vibrant festivals that take place there.
+Night: Relax at Hôtel 20 mars, a highly-rated hotel known for its comfortable rooms, excellent service, and convenient location, providing a tranquil retreat after a day filled with exploration.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering is a restaurant located in Douz, Tunisia. It's known for its pizza, and has received 35 reviews with an average rating of 4.8 out of 5. It is open from 8:00 PM to 12:30 AM, and can be found at the coordinates (41.0269148, 28.9761197).
+Café Expresso is a highly-rated cafe located in Douz, Tunisia, at coordinates (33.1380679, 9.0778647). With a rating of 5.0 based on 2 reviews, this cafe specializes in offering a cozy and enjoyable ambiance for its patrons.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4149,14 +5842,65 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a pleasurable stay, check out Maison d'hote Murmures de civilisation situated at 17 Rue de Combattants, Douz 4260. 
-This top-rated destination is excellent for Hotel lovers and provides different categories of Hotel to select from. 
-With a rating of 4.9, it's a must-visit spot. To get there, use these GPS coordinates: 33.4609735, 9.0248908. For further information, explore their website at https://www.facebook.com/maison.hotes.douz.tunisie/ or contact them at 22 364 896.</t>
+          <t>Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated hotel called Maison d'hote Murmures de civilisation with a 4.9 rating, offering a range of accommodation options in Douz?</t>
+          <t>Day Plan:
+Morning: Enjoy a hearty breakfast at Restaurant SAIF, known for its diverse menu and warm ambiance.
+Mid-Morning: Explore Musee du Sahara de Douz, an archeological museum that offers a glimpse into the rich history and culture of the Sahara desert.
+Midday: Relish a delectable lunch at Restaurant Pizzeria Venezia, renowned for its authentic Italian cuisine and cozy atmosphere.
+Afternoon: Immerse yourself in the bustling Souk Douz, a renowned marketplace offering a vibrant collection of handmade souvenirs.
+Evening: Take a leisurely stroll through the scenic La Porta del Sahara, a popular tourist attraction known for its desert exploration and festivals.
+Night: Indulge in a memorable dinner at Le biscuit Douz, a 5-star rated patisserie specializing in pastries and offering a warm and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Restaurant SAIF, a highly-rated restaurant located in Douz at the coordinates (34.1070436, 35.8976343). This establishment offers a diverse menu of dishes, catering to various tastes and preferences. Its convenient work hours, from 8:00 am to 11:00 pm, make it an ideal dining destination throughout the day. With its warm ambiance and friendly staff, Restaurant SAIF promises a memorable culinary experience for all who visit.
+Café Expresso is a highly-rated cafe located in Douz, Tunisia, at coordinates (33.1380679, 9.0778647). With a rating of 5.0 based on 2 reviews, this cafe specializes in offering a cozy and enjoyable ambiance for its patrons.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4262,12 +6006,64 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated hotel, check out The Residence Douz located at Tourist Rout, Douz 4260. This 4.8-rated destination is perfect for Hotel and Complexe hotelier lovers. For more details, visit their website at https://www.cenizaro.com/theresidence/tunis-dz or call them at 31 323 238.</t>
+          <t>The Residence Douz is a luxurious hotel located in Douz, Tunisia. It offers a range of amenities and services, including a swimming pool, spa, and fitness center. The hotel is situated in the heart of the Douz desert, offering guests the opportunity to experience the beauty and tranquility of the region.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly acclaimed hotel for Hotel and Complexe hotelier enthusiasts in Douz, Tunisia, that boasts a 4.8-star rating?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz - Immerse yourself in the vibrant colors and textures of the local marketplace, discovering unique desert-themed souvenirs and handicrafts.
+Mid-Morning: Trying local cuisine at Magic food - Delight your taste buds with authentic Tunisian flavors in a cozy and inviting atmosphere.
+Midday: Visiting La Porta del Sahara - Journey through the heart of the Sahara Desert on an unforgettable camel ride, marveling at the vast and tranquil landscapes.
+Afternoon: Enjoying recreational activities at Gare routiere - Embark on a scenic bus journey to a nearby oasis or sand dune, where you can engage in outdoor adventures like sandboarding or quad biking.
+Evening: Relaxing with a traditional Hammam experience at Maison Proche de Desert - Rejuvenate your body and mind with a soothing Hammam treatment, followed by a delicious dinner featuring freshly baked bread and local delicacies.
+Night: Participating in a stargazing experience at Sahara Museum - Escape into the captivating night sky, marveling at a myriad of stars and constellations while learning about the region's rich astronomical heritage.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Porte De Sahara is a well-reviewed restaurant located in Douz, Tunisia. It offers traditional cuisine with vegetarian options, and is known for its soups, entrees, and couscous. The restaurant is open from 8am to 10pm daily, and is located at F23C+455 (32.6795736, -4.7279985).
+La Casa Plus is a café located in Douz, Tunisia. It is rated 5.0 based on 2 reviews. The café offers a variety of food and drinks, and is located at coordinates (33.459978201876, 9.035618365702).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+The Residence Douz is a luxurious hotel located in Douz, Tunisia. It offers a range of amenities and services, including a swimming pool, spa, and fitness center. The hotel is situated in the heart of the Douz desert, offering guests the opportunity to experience the beauty and tranquility of the region.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4369,12 +6165,71 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a comfortable stay, check out La Maison du voyageur located at C2RJ+6JW. This top-rated destination is perfect for Hotel lovers. With a rating of 4.5, it's a must-visit spot for travelers. To get there, use these GPS coordinates: 47.092029, -69.980091. For more details, visit their website  or call them at 98 661 438.</t>
+          <t>La Maison du voyageur is a 4.5-star hotel located in douz, Tunisia. This hotel is specialised in hotel stays and offers a wide range of services. It has received 13 reviews with an average rating of 4.5, highlighting its excellent quality. The hotel's phone number is 98 661 438 and its website is not available.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly rated (4.5 stars) accommodation that caters to Hotel enthusiasts and provides a comfortable stay?</t>
+          <t>Day Plan:
+**Morning:**
+* Exploring Souk Douz, a renowned marketplace known for its unique desert-themed souvenirs.
+**Mid-Morning:**
+* Trying local cuisine at TEJ ELKHAYEM, a restaurant offering a variety of dishes, including traditional Tunisian cuisine and international fare.
+**Midday:**
+* Visiting Musee du Sahara de Douz, an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert.
+**Afternoon:**
+* Enjoying camel rides and exploring the Sahara Desert with The Sahara Desert Tunisia g', a well-reviewed travel agency.
+**Evening:**
+* Relaxing with a traditional Hammam experience at a local spa or hotel.
+**Night:**
+* Participating in a lively festival or cultural event at La Porta del Sahara, a highly rated tourist attraction.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+TEJ ELKHAYEM is a restaurant located on C2MG+4W7 in the tourist area of Douz, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 6am to midnight, seven days a week. It has a 4.4-star rating on Google, with many positive reviews mentioning the friendly staff, delicious food, and beautiful views.
+Café Saraya, located at F2CF+M43 in Douz, Tunisia, is a 5-star rated cafe that is open 24 hours a day. It offers a cozy and welcoming atmosphere for customers to enjoy their coffee and snacks. Its exact coordinates are (33.4597601, 9.0244002), making it easily accessible to those in the area.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Le Saharien Paradise is a well-rated hotel located in Douz, Tunisia. It features amenities such as Wi-Fi, breakfast, and parking, providing a comfortable and convenient stay. Enjoy the local hospitality in this hotel settled at the coordinates (33.4457294, 9.0260644).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4472,12 +6327,64 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a luxurious stay, look no further than Le Saharien Paradise, located at C2WG+2PM Le Saharien Paradise, Unnamed Road, Douz. This highly-rated hotel is perfect for travelers seeking a comfortable and relaxing getaway. With a rating of 4.5, it's a must-visit spot for those seeking a top-notch hotel experience. To get there, use these GPS coordinates: 33.4457294, 9.0260644. For more details, visit their website at https://www.google.com/maps/place/Le+Saharien+Paradise/data=!4m10!3m9!1s0x125687666adcab4b:0x3f6d17e2cb431ea2!5m2!4m1!1i2!8m2!3d33.4450801!4d9.0268041!16s%2Fg%2F11frclgvvf!19sChIJS6vcamaHVhIRoh5Dy-IXbT8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Le Saharien Paradise is a well-rated hotel located in Douz, Tunisia. It features amenities such as Wi-Fi, breakfast, and parking, providing a comfortable and convenient stay. Enjoy the local hospitality in this hotel settled at the coordinates (33.4457294, 9.0260644).</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>If you desire a luxurious retreat in Douz, which highly-rated hotel located at C2WG+2PM can provide a comfortable and relaxing getaway?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, the bustling marketplace offering a blend of traditional and modern goods.
+Mid-Morning: Savor local cuisine at Restaurant La Porte De Sahara, renowned for its traditional dishes and soups.
+Midday: Visit Musee du Sahara de Douz to delve into the rich history, culture, and diverse lives of the people who inhabited the Sahara Desert.
+Afternoon: Embark on a camel ride through the Sahara Desert with Sahara Desert Tunisia g' for an unforgettable experience.
+Evening: Attend a lively festival in Douz, immersing yourself in the vibrant local culture and entertainment.
+Night: Relax and unwind at Maison d'hote Murmures de civilisation, a highly-rated guesthouse offering a unique desert experience.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Porte De Sahara is a well-reviewed restaurant located in Douz, Tunisia. It offers traditional cuisine with vegetarian options, and is known for its soups, entrees, and couscous. The restaurant is open from 8am to 10pm daily, and is located at F23C+455 (32.6795736, -4.7279985).
+Douz's Cafe de la Republique is a well-rated cafe that serves a variety of food and drinks. It is located at the following coordinates: 33.4555822, 9.0253572. The cafe is open from 5:30am to 1:00am, and is closed on Sundays. Cafe de la Republique has a 4.0-star rating on Google, and has received 7 reviews.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4575,12 +6482,72 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated hotel, check out Le Saharien Paradise located at F26H+HQH Le Saharien Paradise, Douz. This 4.0-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. To get there, use these GPS coordinates: 33.4457294, 9.0260644. For more details, visit their website at https://www.google.com/maps/place/Le+Saharien+Paradise/data=!4m10!3m9!1s0x125687f3ffffffdd:0x45d9e3695637ad7d!5m2!4m1!1i2!8m2!3d33.4614354!4d9.0294708!16s%2Fg%2F11b73qnv08!19sChIJ3f____OHVhIRfa03Vmnj2UU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Le Saharien Paradise, located in Douz, offers a comfortable stay in a hotel setting (lon: 9.0260644, lat: 33.4457294). With a 4-star rating, this place is well-regarded for its hospitality and services.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>If you're seeking highly acclaimed accommodations in the heart of Douz, what 4.0-rated hotel with numerous hotel options awaits your visit at the coordinates 33.4457294, 9.0260644?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the lively Souk Douz, renowned for its unique desert-themed souvenirs and authentic atmosphere.
+**Mid-Morning:**
+- Visit Musee du Sahara de Douz, an archaeological museum that showcases the rich history and culture of the Sahara desert.
+**Midday:**
+- Indulge in a delectable lunch at Patisserie Abderrahim, highly rated for its pastries and culinary delights.
+**Afternoon:**
+- Embark on a thrilling camel ride adventure with The Sahara Desert Tunisia g', offering an unforgettable experience in the vast desert.
+**Evening:**
+- Immerse yourself in the vibrant atmosphere of La Porta del Sahara, a popular tourist attraction known for its desert exploration and festivals.
+**Night:**
+- Savor a traditional dinner at Restaurant Pizzeria Venezia, specializing in authentic Italian cuisine with a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Patisserie Abderrahim** is a highly-rated restaurant located in Douz, Morocco. It serves a delectable selection of pastries and other culinary delights, earning a 5.0 rating from reviewers. Open from 4:30 am to 7:30 pm daily, Patisserie Abderrahim offers a cozy and inviting ambiance for guests to indulge in its sweet treats and savor the vibrant atmosphere of Douz.
+mqh~ thqfy is a cafe located in Douz, Tunisia. 
+Coordinates : (33.4597601, 9.0244002)
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+The Residence Douz is a luxurious hotel located in Douz, Tunisia. It offers a range of amenities and services, including a swimming pool, spa, and fitness center. The hotel is situated in the heart of the Douz desert, offering guests the opportunity to experience the beauty and tranquility of the region.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4690,14 +6657,66 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a place to stay, check out Sahara Douz located at Sahara Douz, Zone Touristique De Douz, Douz, 4260, 4260. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 43.934563986927, -70.328186010163. For more details, visit their website at http://www.saharadouz.com/ or call them at 75 470 864.</t>
+          <t>Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where is a highly-rated hotel located in Douz, offering a variety of Hotel categories and receiving a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant and bustling Souk Douz, where you can immerse yourself in the local culture and discover an array of handmade crafts, authentic souvenirs, and local delicacies.
+Mid-Morning: Indulge in the delectable pastries and sweet treats at the highly-rated Patisserie Abderrahim, a local favorite known for its exceptional offerings.
+Midday: Visit the Musee du Sahara de Douz to learn about the region's rich archaeological heritage and gain insights into the lives of the Sahara's inhabitants.
+Afternoon: Embark on a thrilling camel ride through the picturesque Sahara Desert, organized by the Sahara Desert Tunisia g agency, which offers a unique and unforgettable experience.
+Evening: Savor the authentic flavors of local cuisine at Restaurant Pizzeria Venezia, a family-friendly establishment renowned for its tantalizing pizzas inspired by Italian culinary traditions.
+Night: Relax and unwind at Hôtel 20 mars, a highly-rated hotel with comfortable rooms and excellent service, ensuring a restful and rejuvenating night's stay.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.
+mqh~ thqfy is a cafe located in Douz, Tunisia. 
+Coordinates : (33.4597601, 9.0244002)
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4807,14 +6826,65 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Douz located at Sahara Douz, Zone Touristique De Douz, Douz, 4260, 4260. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.0, it's a must-visit spot. For more details, visit their website at http://www.saharadouz.com/ or call them at 75 470 864.</t>
+          <t>Located in the heart of the Sahara desert in Douz, Tunisia, Sahara Douz is an elegant hotel offering a unique blend of comfort and adventure. Its chateau-like architecture features a restaurant, bars, indoor and outdoor swimming pools, and a spa. With 951 positive reviews, the hotel boasts a 4.0 rating. Sahara Douz is a popular destination for guests looking to explore the desert, relax in the oasis, or embark on exciting camel or excursion adventures. Its convenient location in the tourist zone of Douz makes it an ideal base for exploring the area and enjoying the local culture.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a top-rated destination with a variety of hotels to choose from, making it ideal for hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a renowned marketplace, for unique desert-themed souvenirs and experience the bustling atmosphere and friendly vendors.
+Mid-Morning: Try local cuisine at Discover Restaurant SAIF, known for its diverse menu and convenient work hours, perfect for a mid-morning meal.
+Midday: Visit Musee du Sahara de Douz, an archeological museum that offers a glimpse into the rich history and culture of the Sahara desert.
+Afternoon: Enjoy a camel ride and tent experience in the Sahara Desert through The Sahara Desert Tunisia g', a well-reviewed travel agency.
+Evening: Explore the La Porta del Sahara, a highly rated tourist attraction known for desert exploration and festivals.
+Night: Relax with traditional cuisine and freshly baked bread at Maison Proche de Desert, a popular guest house in the Sahara Desert, known for its cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Restaurant SAIF, a highly-rated restaurant located in Douz at the coordinates (34.1070436, 35.8976343). This establishment offers a diverse menu of dishes, catering to various tastes and preferences. Its convenient work hours, from 8:00 am to 11:00 pm, make it an ideal dining destination throughout the day. With its warm ambiance and friendly staff, Restaurant SAIF promises a memorable culinary experience for all who visit.
+Café Saraya, located at F2CF+M43 in Douz, Tunisia, is a 5-star rated cafe that is open 24 hours a day. It offers a cozy and welcoming atmosphere for customers to enjoy their coffee and snacks. Its exact coordinates are (33.4597601, 9.0244002), making it easily accessible to those in the area.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Le Saharien Paradise, located in Douz, offers a comfortable stay in a hotel setting (lon: 9.0260644, lat: 33.4457294). With a 4-star rating, this place is well-regarded for its hospitality and services.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum is a cultural institution located in the desert region of Douz (33°27'35.1"N 9°01'27.8"E). It showcases the rich heritage and traditions of the Sahara region, offering visitors a glimpse into its history, art, music, and way of life. The museum presents various exhibits and displays, providing an immersive experience for those interested in exploring the culture and history of this fascinating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4920,12 +6990,65 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in douz, Souk Douz is a must-visit spot for any Marche lover. With a rating of 4.3, it offers a range of Marche options to choose from. It's open 24 hours a day, so you can visit it anytime that suits you. To get there, use these GPS coordinates: 33.4558188, 9.0247194. For more details, visit their website at https://www.google.com/maps/place/Souk+Douz/data=!4m7!3m6!1s0x125687efef05816d:0x7b2dd73ef101141e!8m2!3d33.4553495!4d9.0248511!16s%2Fg%2F11btn1cppn!19sChIJbYEF7--HVhIRHhQB8T7XLXs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 483 885.</t>
+          <t>Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>What is the name and unique attraction of the destination located at GPS coordinates 33.4558188, 9.0247194?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz, a renowned marketplace offering unique desert-themed souvenirs and handicrafts.
+Mid-Morning: Trying local cuisine at Dar Ali Baba, a highly rated restaurant serving traditional Tunisian dishes.
+Midday: Visiting Musee du Sahara de Douz, an archaeological museum showcasing the region's history and culture.
+Afternoon: Engaging in outdoor activities such as camel riding or sand dune exploration in the Sahara Desert, organized by The Sahara Desert Tunisia g' travel agency.
+Evening: Experiencing cultural immersion at La Porta del Sahara, a popular tourist attraction known for desert exploration and festivals.
+Night: Enjoying scenic views at the Sahara Museum, a heritage museum dedicated to preserving and showcasing the rich culture of the Sahara Desert and its people.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Ali Baba is a highly rated restaurant in Douz, Tunisia. It offers a unique dining experience with a menu that features traditional Tunisian cuisine. The restaurant is located at F27J+CC Dar Ali baba, Douz and can be contacted by phone at 25 493 907.
+Cafe Azouza is a popular cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is known for its friendly staff and great atmosphere. The cafe is located at 33.4597601, 9.0244002 and is open from Monday to Sunday.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Le Saharien Paradise is a well-rated hotel located in Douz, Tunisia. It features amenities such as Wi-Fi, breakfast, and parking, providing a comfortable and convenient stay. Enjoy the local hospitality in this hotel settled at the coordinates (33.4457294, 9.0260644).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5035,13 +7158,65 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated travel agency, check out Sahara Desert Tunisia g' located at Sahara Desert Tunisia g', Souk Douz, 4260. 
-This highly-rated spot has a 4.7 rating, making it a must-visit for travel enthusiasts. It's open 24 hours a day, seven days a week, so you can plan your visit at your convenience. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at http://www.sahara-tunisia.com/ or call them at 24 631 777.</t>
+          <t>The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where can you find a conveniently located travel agency in Douz, Tunisia, with exceptional ratings and extended hours of operation?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, the renowned marketplace, for authentic desert-themed souvenirs.
+Mid-Morning: Visit Musee du Sahara de Douz to delve into the rich history and culture of the Sahara Desert.
+Midday: Try local cuisine at Casa Catering, a highly-rated restaurant known for its delicious pizzas.
+Afternoon: Embark on a camel ride and explore the breathtaking Sahara Desert with The Sahara Desert Tunisia g'.
+Evening: Experience the lively atmosphere of La Porta del Sahara and enjoy the traditional desert festivals.
+Night: Unwind with a relaxing stay at Maison d'hote Murmures de civilisation, a guesthouse that offers a unique desert experience.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering, located in Douz (41.0269148, 28.9761197), is a highly-rated restaurant known for its delicious pizzas, as evidenced by its 4.8-star rating from 35 reviews. It is open from 8 pm to 12:30 am and offers a cozy atmosphere for diners looking to satisfy their craving for Italian cuisine.
+Cafe Azouza is a cafe located in Douz, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is located at coordinates (33.4597601, 9.0244002).
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5147,12 +7322,66 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out La Porta del Sahara located at C2PM+F9H La Porta del Sahara, Douz. This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/La+Porta+del+Sahara/data=!4m7!3m6!1s0x1256879c938a61fd:0xf4d01c3d560bd97b!8m2!3d33.4361867!4d9.0334976!16s%2Fg%2F11hzlywcnr!19sChIJ_WGKk5yHVhIRe9kLVj0c0PQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 96 345 597.</t>
+          <t>La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>What is the top-rated tourist destination in Douz, offering a range of attractions and boasting a 4.2 rating?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Douz, a vibrant marketplace offering traditional and modern goods.
+Mid-Morning: Visit the Musee du Sahara de Douz to discover the rich archaeological heritage of the Sahara.
+Midday: Try local cuisine at Dar Ali Baba, a highly rated restaurant offering traditional Tunisian cuisine.
+Afternoon: Enjoy a guided tour of La Porta del Sahara, a popular tourist attraction offering desert exploration and festival experiences.
+Evening: Participate in the lively festivals in Douz, attracting visitors from across the region.
+Night: Relax with a traditional henna experience at L'artisan house byt l'rtyzn, a highly-rated cafe des arts.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Ali Baba is a highly rated restaurant in Douz, Tunisia. It offers a unique dining experience with a menu that features traditional Tunisian cuisine. The restaurant is located at F27J+CC Dar Ali baba, Douz and can be contacted by phone at 25 493 907.
+mqh~ thqfy is a cafe located in Douz, Tunisia. 
+Coordinates : (33.4597601, 9.0244002)
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5254,12 +7483,65 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Musee du Sahara de Douz located at F229+Q9W Musee du Sahara de Douz, Douz. This top-rated destination is perfect for Musee archeologique lovers and offers a range of Musee, Musee archeologique to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-16:30. To get there, use these GPS coordinates: 33.4522958, 9.0182292. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+du+Sahara+de+Douz/data=!4m7!3m6!1s0x125687e4082bf04f:0x6f5f53dfea6783a2!8m2!3d33.4519782!4d9.0184656!16s%2Fg%2F123dm0hvj!19sChIJT_ArCOSHVhIRooNn6t9TX28?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you explore a top-rated destination in Douz for Musée archéologique enthusiasts, featuring a range of Musée and Musée archéologique options?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz, a bustling marketplace offering traditional and modern goods.
+Mid-Morning: Trying local cuisine at Dar Ali Baba, a highly-rated restaurant featuring traditional Tunisian dishes.
+Midday: Visiting Musee du Sahara de Douz, a museum showcasing the archaeological heritage of the Sahara.
+Afternoon: Engaging in outdoor activities like camel riding in the Sahara Desert.
+Evening: Participating in a festival at La Porta del Sahara, a popular tourist attraction.
+Night: Enjoying scenic views of the Sahara Desert at Sahara Douz, an elegant hotel offering desert experiences.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Ali Baba is a highly rated restaurant in Douz, Tunisia. It offers a unique dining experience with a menu that features traditional Tunisian cuisine. The restaurant is located at F27J+CC Dar Ali baba, Douz and can be contacted by phone at 25 493 907.
+Cafeteria Africa, located in Douz, is a cafe offering a relaxing ambiance with a 4.0-star rating. Open daily from 6 AM to 8 PM, the cafe offers a wide range of beverages and snacks in a cozy setting.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Located in the heart of the Sahara desert in Douz, Tunisia, Sahara Douz is an elegant hotel offering a unique blend of comfort and adventure. Its chateau-like architecture features a restaurant, bars, indoor and outdoor swimming pools, and a spa. With 951 positive reviews, the hotel boasts a 4.0 rating. Sahara Douz is a popular destination for guests looking to explore the desert, relax in the oasis, or embark on exciting camel or excursion adventures. Its convenient location in the tourist zone of Douz makes it an ideal base for exploring the area and enjoying the local culture.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5361,12 +7643,67 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in Douz and in search of a captivating experience, visit the Sahara Museum, located on Unnamed Road. With its top rating of 4.7 out of 6 reviews, this renowned museum is a must-see for history and heritage enthusiasts. Open from 9:30 AM to 4:30 PM daily, except on Mondays, this cultural gem offers an unforgettable journey into the rich past of the region. GPS coordinates: (33.4597601, 9.0244002)</t>
+          <t>The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where in Douz can you immerse yourself in the region's rich history and heritage at a top-rated museum, located at specific GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the Sahara Museum in Douz to delve into the rich history and culture of the region.
+Mid-Morning: Visit Musee du Sahara de Douz for an archaeological exploration of the Sahara desert's past.
+Midday: Indulge in the local cuisine at "Chez Magic," a highly-rated restaurant offering traditional Tunisian dishes.
+Afternoon: Experience the vibrant Souk Douz, a bustling marketplace showcasing handcrafted souvenirs and local artistry.
+Evening: Take a guided tour of La Porta del Sahara, a popular tourist attraction offering insights into the gateway to the desert.
+Night: Relax with a stay at Hôtel 20 mars, a highly-rated accommodation offering comfort and convenience in the heart of the Sahara desert.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Chez Magic" is a restaurant in Douz, Tunisia. It's located on Avenue des Martyrs and offers a variety of dishes, with a focus on traditional Tunisian cuisine. 
+The restaurant has a 4.3-star rating on Google with 3 reviews and is open from 10:00 AM to 10:00 PM. 
+It's located at coordinates (33.1380679, 9.0778647).
+La Casa Plus is a cafe located in Douz, Tunisia, offering a cozy and comfortable atmosphere. It is situated along Avenue Mohamed Marzougui, with the exact coordinates of (33.459978201876, 9.035618365702). The cafe has received positive reviews, earning a rating of 5.0 stars from customers.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5468,14 +7805,65 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at F229+W8V Sahara Museum, Unnamed Road, Douz. 
-This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of Musee du patrimoine to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>What top-rated destination in Douz is a haven for Musee du patrimoine enthusiasts, located at F229+W8V Sahara Museum?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a bustling marketplace in the heart of Douz, offering a blend of traditional and modern goods.
+Mid-Morning: Visit Musee du Sahara de Douz, an archeological museum that showcases the rich history and culture of the Sahara Desert.
+Midday: Try local cuisine at Magic Food, a highly-rated family restaurant specializing in traditional dishes and offering a unique dining experience.
+Afternoon: Embark on a guided camel ride at The Sahara Desert Tunisia g' travel agency, offering camel rides and tent experiences in the Sahara Desert.
+Evening: Visit La Porta del Sahara, a popular tourist attraction, for a glimpse into the desert's culture and an opportunity to attend festivals.
+Night: Relax and enjoy traditional entertainment at Casa Catering, a restaurant known for its pizza and positive reviews.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering is a restaurant located in Douz, Tunisia. It's known for its pizza, and has received 35 reviews with an average rating of 4.8 out of 5. It is open from 8:00 PM to 12:30 AM, and can be found at the coordinates (41.0269148, 28.9761197).
+Cafe L'orient Douz ... mqh~ lshrq is a highly rated (4.9) cafe located in Douz, Tunisia at (33.4597601, 9.0244002). it's open 24/7 and offers a cozy ambiance for enjoying coffee and drinks.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Located in the heart of the Sahara desert in Douz, Tunisia, Sahara Douz is an elegant hotel offering a unique blend of comfort and adventure. Its chateau-like architecture features a restaurant, bars, indoor and outdoor swimming pools, and a spa. With 951 positive reviews, the hotel boasts a 4.0 rating. Sahara Douz is a popular destination for guests looking to explore the desert, relax in the oasis, or embark on exciting camel or excursion adventures. Its convenient location in the tourist zone of Douz makes it an ideal base for exploring the area and enjoying the local culture.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5577,12 +7965,64 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Musee du Sahara de Douz located at F229+Q9W Musee du Sahara de Douz, Douz. This top-rated destination is perfect for Musee archeologique lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 07:00-16:30. To get there, use these GPS coordinates: 33.4522958, 9.0182292. For more details, visit their website at https://www.google.com/maps/place/Mus%C3%A9e+du+Sahara+de+Douz/data=!4m7!3m6!1s0x125687e4082bf04f:0x6f5f53dfea6783a2!8m2!3d33.4519782!4d9.0184656!16s%2Fg%2F123dm0hvj!19sChIJT_ArCOSHVhIRooNn6t9TX28?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>For those interested in Musee archeologique, what top-rated destination in Douz offers a range of categories at Musee du Sahara de Douz?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Douz, a vibrant marketplace offering a blend of traditional and modern goods.
+Mid-Morning: Visit the Sahara Museum, which offers insights into the rich history and culture of the Sahara Desert through its collection of artifacts and exhibits.
+Midday: Try local cuisine at Casa Catering, a highly-rated restaurant known for its delicious pizzas.
+Afternoon: Enjoy the scenic views at La Porta del Sahara, a popular destination for exploring the desert and attending festivals.
+Evening: Participate in camel riding and tent experiences offered by The Sahara Desert Tunisia g', a well-reviewed travel agency.
+Night: Relax with a soothing hammam experience at Sun Palm Douz, a hotel with a 4.7/5 rating.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering, located in Douz (41.0269148, 28.9761197), is a highly-rated restaurant known for its delicious pizzas, as evidenced by its 4.8-star rating from 35 reviews. It is open from 8 pm to 12:30 am and offers a cozy atmosphere for diners looking to satisfy their craving for Italian cuisine.
+Cafe Clasico, a highly-rated (5.0/5) cafe located in Douz, Tunisia. It operates 24 hours a day and is renowned for its exceptional coffee and cozy ambiance. The cafe is conveniently positioned on rue de Hnich and can be easily located using the coordinates (33.4597601, 9.0244002).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5684,12 +8124,65 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at Unnamed Road, Douz. This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Sahara+Museum/data=!4m7!3m6!1s0x125687aadb073e29:0x945d341ccc195081!8m2!3d33.4523692!4d9.0183059!16s%2Fm%2F0n8jg5k!19sChIJKT4H26qHVhIRgVAZzBw0XZQ?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a top-rated destination perfect for Musee du patrimoine lovers, what is the must-visit spot with a rating of 4.7 at Unnamed Road, Douz?</t>
+          <t>Day Plan:
+Morning: Visit the Musee du Sahara de Douz to discover the archaeological heritage of the Sahara.
+Mid-Morning: Take a guided tour of the Sahara Desert Tunisia g' to learn about camel rides, tent experiences, and desert exploration.
+Midday: Try local cuisine at TEJ ELKHAYEM, a restaurant offering traditional Tunisian dishes and international cuisine.
+Afternoon: Enjoy scenic views at the Sahara Desert and engage in outdoor activities like sandboarding or camel riding.
+Evening: Participate in the vibrant festivals held in Douz, which attract visitors from across the region.
+Night: Relax with a traditional hammam experience at a local spa or hotel, immersing yourself in the local culture.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+TEJ ELKHAYEM is a restaurant located in the touristic area of Douz, Tunisia (33.4597601, 9.0244002). It offers a variety of dishes, including traditional Tunisian dishes and international cuisine. The restaurant is open from 6am to midnight and has a rating of 4.4 out of 5 on Google Maps.
+Cafe Clasico, a highly-rated (5.0/5) cafe located in Douz, Tunisia. It operates 24 hours a day and is renowned for its exceptional coffee and cozy ambiance. The cafe is conveniently positioned on rue de Hnich and can be easily located using the coordinates (33.4597601, 9.0244002).
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Le Saharien Paradise, located in Douz, offers a comfortable stay in a hotel setting (lon: 9.0260644, lat: 33.4457294). With a 4-star rating, this place is well-regarded for its hospitality and services.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5791,12 +8284,71 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at F229+W8V Sahara Museum, Unnamed Road, Douz. This top-rated destination is perfect for Musee du patrimoine lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly rated Musee du patrimoine with a 4.7 star rating, perfect for history enthusiasts?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore the vibrant Souk Douz, a marketplace renowned for its authentic desert-themed souvenirs.
+**Mid-Morning:**
+- Visit the Musee du Sahara de Douz for a journey through time, discovering the region's rich archaeological heritage.
+**Midday:**
+- Try local cuisine at Restaurant pizza Venezia, a popular family restaurant offering delicious pizzas.
+**Afternoon:**
+- Experience the Sahara Desert Tunisia g' on a camel ride or a tent experience, immersing yourself in the captivating desert landscape.
+**Evening:**
+- Relax and enjoy scenic views at La Porta del Sahara, a tourist attraction known for its desert exploration and festivals.
+**Night:**
+- Participate in a traditional Touareg gathering at Maison Proche de Desert, enjoying local music, storytelling, and freshly baked bread.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sahara is a 5-star rated restaurant located in Douz, Tunisia, with coordinates (33.4347514, 9.0200775). It offers a variety of dining options and is known for its excellent service and delicious food.
+Cafeteria Africa, located in Douz, is a cafe offering a relaxing ambiance with a 4.0-star rating. Open daily from 6 AM to 8 PM, the cafe offers a wide range of beverages and snacks in a cozy setting.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5898,14 +8450,65 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great place to learn about local heritage, check out Sahara Museum located at the the address F229+W8V Sahara Museum, Unnamed Road, Douz. 
-This top-rated destination is the perfect spot for those interested in Musee du patrimoine and offers a range of related options to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but it's closed on Mondays. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>Where in Douz can you explore Sahara heritage and find a 4.7-rated museum destination?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz for local crafts and delicacies.
+Mid-Morning: Visit the Musee du Sahara de Douz for insights into the region's history.
+Midday: Savor traditional Tunisian cuisine at Restaurant La Porte De Sahara.
+Afternoon: Experience the desert landscape with a camel ride and tent experience arranged by Sahara Desert Tunisia g'.
+Evening: Witness the sunset over the sand dunes at La Porta del Sahara tourist attraction.
+Night: Participate in a local festival and immerse yourself in the vibrant culture of Douz.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Restaurant La Porte De Sahara is located in Douz, Tunisia, at coordinates (32.6795736, -4.7279985). This restaurant offers traditional Tunisian cuisine, including brik, couscous, and soup. It is open daily from 8:00 AM to 10:00 PM and has received positive reviews, with a rating of 4.9 out of 5 stars.
+Cafe Jdayda, a 5-star rated cafe located in Douz (33.1380679, 9.0778647), is open from 4:30 AM to 11:30 PM every day except for those listed on their website.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+The Sun Palm Douz hotel is located in Douz, Tunisia. It offers 4395 rooms and suites in a relaxed style, with an outdoor pool, restaurant, and hammam. The hotel is rated 4.7 stars and has received 4669 reviews. It is located in the desert and offers excursions, quad biking, and camel rides. The hotel is located at 33.1380679 latitude and 9.0778647 longitude.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6007,12 +8610,72 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at F229+W8V Sahara Museum, Unnamed Road, Douz. This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of Musee du patrimoine to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website or call them.</t>
+          <t>The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you visit a highly-rated museum dedicated to Musee du patrimoine in Douz?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore Souk Douz, a vibrant marketplace showcasing traditional and modern goods
+**Mid-Morning:**
+* Visit Musee du Sahara de Douz, an archeological museum offering insights into the Sahara desert's rich history and culture
+**Midday:**
+* Try local cuisine at The Restaurant La Porte De Sahara, renowned for its traditional Tunisian dishes
+**Afternoon:**
+* Enjoy scenic views of the Sahara desert from La Porta del Sahara, a popular tourist attraction
+**Evening:**
+* Participate in a camel ride through the Sahara Desert with The Sahara Desert Tunisia g' travel agency
+**Night:**
+* Relax at Sahara Douz, an elegant hotel offering a restaurant, bars, and indoor and outdoor swimming pools</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Restaurant La Porte De Sahara is located in Douz, Tunisia, at coordinates (32.6795736, -4.7279985). This restaurant offers traditional Tunisian cuisine, including brik, couscous, and soup. It is open daily from 8:00 AM to 10:00 PM and has received positive reviews, with a rating of 4.9 out of 5 stars.
+mqh~ thqfy is a cafe located in Douz, Tunisia. 
+Coordinates : (33.4597601, 9.0244002)
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Located in the heart of the Sahara desert in Douz, Tunisia, Sahara Douz is an elegant hotel offering a unique blend of comfort and adventure. Its chateau-like architecture features a restaurant, bars, indoor and outdoor swimming pools, and a spa. With 951 positive reviews, the hotel boasts a 4.0 rating. Sahara Douz is a popular destination for guests looking to explore the desert, relax in the oasis, or embark on exciting camel or excursion adventures. Its convenient location in the tourist zone of Douz makes it an ideal base for exploring the area and enjoying the local culture.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6122,14 +8785,64 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a place to stay, check out Sun Palm Douz located at Zone Touristique Bp 98, Douz 4260. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at http://www.goldenyasmin.com/ or call them at 75 470 123.</t>
+          <t>The Sun Palm Douz hotel is located in Douz, Tunisia. It offers 4395 rooms and suites in a relaxed style, with an outdoor pool, restaurant, and hammam. The hotel is rated 4.7 stars and has received 4669 reviews. It is located in the desert and offers excursions, quad biking, and camel rides. The hotel is located at 33.1380679 latitude and 9.0778647 longitude.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated hotel with a range of categories in Douz, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz, a renowned marketplace where you can find unique desert-themed souvenirs and handicrafts.
+Mid-Morning: Visit the Archeological Museum of Douz, which showcases the rich history and culture of the Sahara desert through its collection of artifacts and exhibits.
+Midday: Indulge in a delicious lunch at Pizzeria Marella, known for its cozy atmosphere and tasty pizzas made with fresh local ingredients.
+Afternoon: Embark on an unforgettable camel ride through the picturesque Sahara Desert with The Sahara Desert Tunisia g', a well-reviewed travel agency.
+Evening: Attend a cultural event at La Porta del Sahara, a popular tourist attraction offering an exciting blend of desert exploration and festive experiences.
+Night: Relax and unwind at Le Bon Jour 12, a fast food restaurant with a 5.0 rating, serving a wide variety of delicious dishes.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.
+Cafe Saraya is a popular spot in Douz, Tunisia, offering a cozy atmosphere and a wide range of beverages. It's conveniently located at (33.4597601, 9.0244002) and is open 24 hours a day serving coffee, tea, and other drinks. With a 5-star rating and positive reviews, Cafe Saraya is a great place to relax and enjoy a cup of your favorite drink.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+The Residence Douz is a luxurious hotel located in Douz, Tunisia. It offers a range of amenities and services, including a swimming pool, spa, and fitness center. The hotel is situated in the heart of the Douz desert, offering guests the opportunity to experience the beauty and tranquility of the region.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum is a cultural institution located in the desert region of Douz (33°27'35.1"N 9°01'27.8"E). It showcases the rich heritage and traditions of the Sahara region, offering visitors a glimpse into its history, art, music, and way of life. The museum presents various exhibits and displays, providing an immersive experience for those interested in exploring the culture and history of this fascinating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6239,14 +8952,65 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great place to stay, check out Sahara Douz located at Sahara Douz, Zone Touristique De Douz, Douz, 4260, 4260. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 43.934563986927, -70.328186010163. For more details, visit their website at http://www.saharadouz.com/ or call them at 75 470 864.</t>
+          <t>Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination with an array of hotels to choose from in the Zone Touristique De Douz?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz
+Mid-Morning: Trying local cuisine at Sahara Restaurant
+Midday: Visiting La Porta del Sahara
+Afternoon: Participating in a camel ride with Sahara Desert Tunisia g'
+Evening: Enjoying scenic views at Magic Food
+Night: Relaxing with a traditional meal at Maison d'hote Murmures de civilisation</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Sahara" is a highly-rated restaurant located in douz. It focuses on offering , with an average customer rating of 5.0. The establishment is located at coordinates (33.4347514, 9.0200775).
+Dr lswq Dar El Souk is a 4.4 stars rated Cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002).
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6352,12 +9116,65 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Restaurant La Porte De Sahara located at F23C+455 Restaurant La Porte De Sahara, Douz. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on []. To get there, use these GPS coordinates: 32.6795736, -4.7279985. For more details, visit their website at https://www.google.com/maps/place/Restaurant+La+Porte+De+Sahara/data=!4m7!3m6!1s0x125687e445f2d131:0x81e32c0e8c9ba04b!8m2!3d33.4527513!4d9.0204856!16s%2Fg%2F11gg_v2402!19sChIJMdHyReSHVhIRS6CbjA4s44E?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 801 217.</t>
+          <t>The Restaurant La Porte De Sahara is located in Douz, Tunisia, at coordinates (32.6795736, -4.7279985). This restaurant offers traditional Tunisian cuisine, including brik, couscous, and soup. It is open daily from 8:00 AM to 10:00 PM and has received positive reviews, with a rating of 4.9 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Which top-rated destination in Douz is perfect for Restaurant lovers and boasts a 4.9 rating, inviting visitors to experience its culinary delights?</t>
+          <t>Day Plan:
+Morning: Explore the Sahara Desert Tunisia g' for an immersive desert experience.
+Mid-Morning: Visit Musee du Sahara de Douz to delve into the region's rich history and culture.
+Midday: Indulge in local cuisine at Sahara, a highly-rated restaurant offering a variety of dining options.
+Afternoon: Experience the vibrant local culture at Souk Douz, a renowned marketplace known for its desert-themed souvenirs.
+Evening: Take part in the festivities and explore the attractions at La Porta del Sahara, a popular tourist spot.
+Night: Relax and unwind at Sahara Douz, a 4-star hotel offering luxurious amenities and a rejuvenating spa.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sahara is a 5-star rated restaurant located in Douz, Tunisia, with coordinates (33.4347514, 9.0200775). It offers a variety of dining options and is known for its excellent service and delicious food.
+Café Saraya, located at F2CF+M43 in Douz, Tunisia, is a 5-star rated cafe that is open 24 hours a day. It offers a cozy and welcoming atmosphere for customers to enjoy their coffee and snacks. Its exact coordinates are (33.4597601, 9.0244002), making it easily accessible to those in the area.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6463,12 +9280,64 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Souk Douz located at Souk Douz, Douz 4260. This top-rated destination is perfect for Marche lovers. With a rating of 4.3, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 33.4558188, 9.0247194. For more details, visit their website at https://www.google.com/maps/place/Souk+Douz/data=!4m7!3m6!1s0x125687efef05816d:0x7b2dd73ef101141e!8m2!3d33.4553495!4d9.0248511!16s%2Fg%2F11btn1cppn!19sChIJbYEF7--HVhIRHhQB8T7XLXs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 483 885.</t>
+          <t>Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where is the top-rated Souk Douz market located, offering Marche enthusiasts a special experience with its high rating and extended 24-hour availability?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a bustling marketplace in the heart of Douz, Tunisia.
+Mid-Morning: Try local cuisine at Le Bon Jour 12, a fast food restaurant known for its delicious dishes.
+Midday: Visit La Porta del Sahara, a highly rated tourist attraction that showcases the desert and its culture.
+Afternoon: Take a guided tour of Musee du Sahara de Douz, an archeological museum that offers insights into the rich history and culture of the Sahara desert.
+Evening: Participate in the vibrant festivals of Douz, which attract visitors from far and wide.
+Night: Relax with a traditional stay at Maison Proche de Desert, a guest house in the Sahara Desert that offers a unique desert experience with camel rides and sand dune exploration.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.
+Cafe Jdayda is a cafe located in Douz, Tunisia. It's open from 04:30 to 23:30 and is rated 5.0 stars. It's located at F24G+CC7 Cafe Jdayda, Rue Yahia Ben mhemed, Douz 4260 and can be contacted at 20 517 824.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+La Maison du voyageur is a 4.5-star hotel located in douz, Tunisia. This hotel is specialised in hotel stays and offers a wide range of services. It has received 13 reviews with an average rating of 4.5, highlighting its excellent quality. The hotel's phone number is 98 661 438 and its website is not available.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6574,12 +9443,71 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great place to eat, check out TEJ ELKHAYEM located at C2MG+4W7 TEJ ELKHAYEM, ZONE TOURISTIQUE, Douz. This top-rated restaurant is perfect for food enthusiasts and offers a range of cuisines to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 06:00-00:00, but closed on unspecified days. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their link at https://www.google.com/maps/place/TEJ+ELKHAYEM/data=!4m7!3m6!1s0x125687cf7218a599:0x6a2fec8cd63fa05!8m2!3d33.4327914!4d9.0272838!16s%2Fg%2F11gh2j1hhc!19sChIJmaUYcs-HVhIRBfpjzcj-ogY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 454 435.</t>
+          <t>TEJ ELKHAYEM is a restaurant located in the touristic area of Douz, Tunisia (33.4597601, 9.0244002). It offers a variety of dishes, including traditional Tunisian dishes and international cuisine. The restaurant is open from 6am to midnight and has a rating of 4.4 out of 5 on Google Maps.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a top-rated restaurant with a 4.4 rating featuring a diverse menu?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the vibrant Souk Douz to find unique desert-themed souvenirs.
+**Mid-Morning:**
+- Visit the Musee du Sahara de Douz to learn about the region's rich archaeological heritage.
+**Midday:**
+- Enjoy a delicious lunch of traditional Tunisian cuisine at Restaurant La Porte De Sahara.
+**Afternoon:**
+- Take a guided tour of La Porta del Sahara, a popular tourist attraction known for its desert experiences and festivals.
+**Evening:**
+- Participate in a camel ride and immerse yourself in the beauty of the Sahara Desert offered by the Sahara Desert Tunisia g' travel agency.
+**Night:**
+- Indulge in the cozy atmosphere and authentic Italian cuisine at Restaurant Pizzeria Venezia.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Porte De Sahara is a highly-rated (4.9 out of 5) restaurant located in Douz, Tunisia. It offers traditional Tunisian cuisine, including soups, entrees, briks, couscous, and vegetarian options. The restaurant has a wide selection of dishes and caters to the Muslim community during Ramadan. It is also well-known for its friendly staff and convenient location. The restaurant is open from 8:00 AM to 10:00 PM and closed on Fridays.
+Café Saraya, located at F2CF+M43 in Douz, Tunisia, is a 5-star rated cafe that is open 24 hours a day. It offers a cozy and welcoming atmosphere for customers to enjoy their coffee and snacks. Its exact coordinates are (33.4597601, 9.0244002), making it easily accessible to those in the area.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+La Maison du voyageur is a 4.5-star hotel located in douz, Tunisia. This hotel is specialised in hotel stays and offers a wide range of services. It has received 13 reviews with an average rating of 4.5, highlighting its excellent quality. The hotel's phone number is 98 661 438 and its website is not available.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6677,14 +9605,64 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Douz located at Douz. 
-This top-rated destination is perfect for Constructeur immobilier lovers and offers a range of Constructeur immobilier to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their link at https://www.google.com/maps/place/Douz/data=!4m7!3m6!1s0x125687268701174f:0xa14f9c8b4d21c5de!8m2!3d33.4614354!4d9.0294708!16s%2Fg%2F11kplj280y!19sChIJTxcBhyaHVhIR3sUhTYucT6E?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>What popular location in Douz caters specifically to Constructeur immobilier enthusiasts with high ratings?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a bustling marketplace offering traditional and modern goods.
+Mid-Morning: Try the exquisite pastries at Le biscuit Douz, a 5-star patisserie in the souk.
+Midday: Visit Musee du Sahara de Douz, an archeological museum showcasing the region's rich history and culture.
+Afternoon: Experience a camel ride and explore the breathtaking Sahara Desert with Sahara Desert Tunisia g'.
+Evening: Witness the lively atmosphere and enjoy local cuisine at Café Clasico, a cozy café in the heart of Douz.
+Night: Relax with a traditional dessert at Magic Food, a family restaurant offering a cozy ambiance and delicious dishes.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant "Chez Magic" is located in Douz, Tunisia at coordinates (33.1380679, 9.0778647). It offers a dining experience with an average rating of 4.3 out of 5 stars based on 3 reviews. The restaurant is open from 10:00 AM to 10:00 PM every day. To contact the restaurant, you can call 21 731 781.
+Café Clasico, located in the heart of Douz at the crossroads of rue de Hnich and F23C+34H, is a cozy café offering a warm and inviting atmosphere. As you step inside, you'll be greeted by the aroma of freshly brewed coffee and the sound of locals chatting away. With its convenient 24-hour opening hours, Café Clasico is the perfect spot to grab a caffeine fix or a bite to eat at any time of day or night.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6786,12 +9764,64 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Sahara Museum located at F229+W8V Sahara Museum, Unnamed Road, Douz. This top-rated destination is perfect for Musee du patrimoine lovers and offers a range of Musee du patrimoine to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:30-16:30, but closed on lundi. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Sahara+Museum/data=!4m7!3m6!1s0x125687aadb073e29:0x945d341ccc195081!8m2!3d33.4523692!4d9.0183059!16s%2Fm%2F0n8jg5k!19sChIJKT4H26qHVhIRgVAZzBw0XZQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>The Sahara Museum is a cultural institution located in the desert region of Douz (33°27'35.1"N 9°01'27.8"E). It showcases the rich heritage and traditions of the Sahara region, offering visitors a glimpse into its history, art, music, and way of life. The museum presents various exhibits and displays, providing an immersive experience for those interested in exploring the culture and history of this fascinating region.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Musee du patrimoine destination with a 4.7 rating in Douz, Sahara Desert?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz, a renowned marketplace offering desert-themed souvenirs and authentic local experiences.
+Mid-Morning: Immerse yourself in the region's history at the Musee du Sahara de Douz, discovering the rich archaeological heritage of the Sahara.
+Midday: Indulge in local cuisine at Restaurant SAIF, a popular dining destination serving a variety of dishes in a convenient location.
+Afternoon: Take a camel ride adventure through the Sahara Desert with The Sahara Desert Tunisia g', exploring the vast and captivating desert landscape.
+Evening: Experience the enchanting desert ambiance at Sahara Douz, an elegant hotel offering luxurious amenities and delectable dining options.
+Night: Participate in the festivities at La Porta del Sahara, a highly rated tourist attraction that hosts traditional music performances and desert-themed events.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant SAIF in Douz, Tunisia, is a popular dining destination offering a variety of dishes. Its convenient location at F25G+RH2 makes it easy to access, and its hours of operation from 8 AM to 11 PM ensure that patrons can enjoy their meals at their leisure. The restaurant's rating of 4.0 out of 5 stars is a testament to its commitment to providing guests with a satisfying experience.
+MqH~ is a popular cafe in Douz, Tunisia, with a 4.8 rating based on 4 reviews. It features a cozy atmosphere and a menu with various cafe-style offerings. Geographically, it is located at 33.4597601 latitude and 9.0244002 longitude and can be found at F25C+223. Its primary category is Cafe.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6897,12 +9927,65 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you are in douz and looking for a delightful dining experience, check out Restaurant ElBey located at FX9G+8V7 Restaurant ElBey, Douz. This highly-rated restaurant boasts a 4.1 rating and is perfect for those who appreciate great food. It's open daily from 08:00-00:00, so you can enjoy a meal whenever you're in the mood. For more information, visit their website https://www.google.com/maps/place/Restaurant+ElBey/data=!4m7!3m6!1s0x12568829acb2d1d7:0xfa14dbba84b6d7fd!8m2!3d33.4682998!4d8.9771699!16s%2Fg%2F11ddxqc03h!19sChIJ19GyrCmIVhIR_de2hLrbFPo?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 081 659.</t>
+          <t>Restaurant ElBey, located in Douz (50.109024, 8.667558), is a highly-rated (4.1 stars) restaurant with 279 reviews. It offers a unique dining experience amidst the desert landscapes of southern Tunisia. Step into a world of magic decor, where tents and palm trees create a captivating ambiance. The restaurant serves delicious cuisine and provides impeccable service. With a focus on local flavors and a no-alcohol policy, Restaurant ElBey promises an unforgettable dining journey in the heart of the Sahara Desert.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly-rated restaurant with a delightful dining experience that's open daily?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a renowned marketplace offering unique desert-themed souvenirs handcrafted by skilled artisans.
+Mid-Morning: Visit the Sahara Museum, showcasing the rich culture and history of the Sahara Desert and its people.
+Midday: Try local cuisine at Restaurant Pizzeria Venezia, known for its delectable pizzas made with authentic Italian ingredients.
+Afternoon: Enjoy a relaxing camel ride through the Sahara Desert with The Sahara Desert Tunisia g' travel agency.
+Evening: Attend a traditional festival in Douz, immersing yourself in the vibrant local culture and entertainment.
+Night: Relax and dine at Hôtel 20 mars, enjoying comfortable rooms and excellent service in the heart of the Sahara desert.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Restaurant SAIF, a highly-rated restaurant located in Douz at the coordinates (34.1070436, 35.8976343). This establishment offers a diverse menu of dishes, catering to various tastes and preferences. Its convenient work hours, from 8:00 am to 11:00 pm, make it an ideal dining destination throughout the day. With its warm ambiance and friendly staff, Restaurant SAIF promises a memorable culinary experience for all who visit.
+Cafe Clasico, a highly-rated (5.0/5) cafe located in Douz, Tunisia. It operates 24 hours a day and is renowned for its exceptional coffee and cozy ambiance. The cafe is conveniently positioned on rue de Hnich and can be easily located using the coordinates (33.4597601, 9.0244002).
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7008,14 +10091,65 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a delicious dining experience, check out Restaurant La Porte De Sahara located at F23C+455 Restaurant La Porte De Sahara, Douz. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.9, it's a must-visit spot. It's open during these hours: 08:00-22:00, but closed on . 
-To get there, use these GPS coordinates: 32.6795736, -4.7279985. For more details, visit their website at  or call 98 them at 801 217.</t>
+          <t>Restaurant La Porte De Sahara is a well-reviewed restaurant located in Douz, Tunisia. It offers traditional cuisine with vegetarian options, and is known for its soups, entrees, and couscous. The restaurant is open from 8am to 10pm daily, and is located at F23C+455 (32.6795736, -4.7279985).</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly-rated restaurant offering a wide range of cuisine options in a convenient location?</t>
+          <t>Day Plan:
+Morning: Exploring La Porta del Sahara
+Mid-Morning: Trying local cuisine at "Sahara" 
+Midday: Visiting Musee du Sahara de Douz
+Afternoon: Relaxing with a camel ride at The Sahara Desert Tunisia g'
+Evening: Enjoying a traditional meal at Magic Food
+Night: Shopping for souvenirs at Souk Douz</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Sahara" is a highly-rated restaurant located in douz. It focuses on offering , with an average customer rating of 5.0. The establishment is located at coordinates (33.4347514, 9.0200775).
+Cafe L'orient Douz is a cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). Its main category is 'Cafe' and it offers 24/7 service. Cafe L'orient Douz has received 14 reviews and has a rating of 4.9.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7121,12 +10255,64 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a comfortable place to stay, consider Hotel 20 mars located at F24F+CP3 Hotel 20 mars, Douz. This 4.1-rated hotel offers a range of accommodations, perfect for travelers seeking a convenient and comfortable stay. To get there, use these GPS coordinates: 33.456008, 9.0243538. For more details, visit their website at http://www.nefzaoua-voyages.com/ or call them at 75 472 920.</t>
+          <t>**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>What is the name and address of the 4.1-rated hotel in Douz that offers convenient and comfortable accommodations for travelers?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz
+Mid-Morning: Trying local cuisine at Restaurant SAIF
+Midday: Visiting Musee du Sahara de Douz
+Afternoon: Enjoying scenic views at La Porta del Sahara
+Evening: Taking a camel ride at Sahara Desert Tunisia g'
+Night: Relaxing with a hammam at Sun Palm Douz</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant SAIF in Douz, Tunisia, is a popular dining destination offering a variety of dishes. Its convenient location at F25G+RH2 makes it easy to access, and its hours of operation from 8 AM to 11 PM ensure that patrons can enjoy their meals at their leisure. The restaurant's rating of 4.0 out of 5 stars is a testament to its commitment to providing guests with a satisfying experience.
+MqH~ is a popular cafe in Douz, Tunisia, with a 4.8 rating based on 4 reviews. It features a cozy atmosphere and a menu with various cafe-style offerings. Geographically, it is located at 33.4597601 latitude and 9.0244002 longitude and can be found at F25C+223. Its primary category is Cafe.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum is a cultural institution located in the desert region of Douz (33°27'35.1"N 9°01'27.8"E). It showcases the rich heritage and traditions of the Sahara region, offering visitors a glimpse into its history, art, music, and way of life. The museum presents various exhibits and displays, providing an immersive experience for those interested in exploring the culture and history of this fascinating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7232,12 +10418,71 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated restaurant, TEJ ELKHAYEM is a must-visit spot. Located at C2MG+4W7 TEJ ELKHAYEM, ZONE TOURISTIQUE, Douz, this popular destination offers a range of dining options. With a rating of 4.4 based on 59 reviews, it's perfect for restaurant lovers. TEJ ELKHAYEM is open from 06:00-00:00, so be sure to check it out during those hours. For more details, call them at 98 454 435.</t>
+          <t>TEJ ELKHAYEM is a restaurant located on C2MG+4W7 in the tourist area of Douz, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 6am to midnight, seven days a week. It has a 4.4-star rating on Google, with many positive reviews mentioning the friendly staff, delicious food, and beautiful views.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>In Douz, where can you find a top-rated restaurant renowned for its exceptional dining experience and highly rated by numerous reviewers?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore Souk Douz, a renowned marketplace offering unique desert-themed souvenirs.
+**Mid-Morning:**
+- Visit the Musee du Sahara de Douz, an archaeological museum showcasing the rich heritage of the Sahara.
+**Midday:**
+- Try local cuisine at Restaurant pizza Venezia, a family-friendly pizzeria rated 4.1 stars.
+**Afternoon:**
+- Enjoy a camel ride and desert exploration through the Sahara Desert with The Sahara Desert Tunisia g'.
+**Evening:**
+- Explore La Porta del Sahara, a popular tourist attraction offering a gateway to the desert and festivals.
+**Night:**
+- Relax and unwind at Maison Proche de Desert, a cozy guest house offering authentic desert experiences.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.
+La Casa Plus is a cafe located in Douz, Tunisia, offering a cozy and comfortable atmosphere. It is situated along Avenue Mohamed Marzougui, with the exact coordinates of (33.459978201876, 9.035618365702). The cafe has received positive reviews, earning a rating of 5.0 stars from customers.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum is a cultural institution located in the desert region of Douz (33°27'35.1"N 9°01'27.8"E). It showcases the rich heritage and traditions of the Sahara region, offering visitors a glimpse into its history, art, music, and way of life. The museum presents various exhibits and displays, providing an immersive experience for those interested in exploring the culture and history of this fascinating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7343,14 +10588,65 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out casa catering located at casa catering, 4200. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 20:00-00:30, but closed on . To get there, use these GPS coordinates: 41.0269148, 28.9761197. For more details, visit their link at https://www.google.com/maps/place/casa+catering/data=!4m7!3m6!1s0x125687b79b615933:0xe7247f52710b4076!8m2!3d33.4568261!4d9.0248257!16s%2Fg%2F11fnxpp76l!19sChIJM1lhm7eHVhIRdkALcVJ_JOc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 480 719.</t>
+          <t>Casa Catering is a restaurant located in Douz, Tunisia. It's known for its pizza, and has received 35 reviews with an average rating of 4.8 out of 5. It is open from 8:00 PM to 12:30 AM, and can be found at the coordinates (41.0269148, 28.9761197).</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>Which top-rated dining destination in Douz is renowned for its exceptional Restaurant options, earning a 4.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore the bustling marketplace at Souk Douz.
+Mid-Morning: Visit the Musee du Sahara de Douz to delve into the archaeological heritage of the Sahara.
+Midday: Try local cuisine at Cafe Sahara, known for its delectable lamb dishes.
+Afternoon: Take a refreshing break by the picturesque Le biscuit Douz, indulge in pastries and enjoy breathtaking views.
+Evening: Participate in a camel ride and tent experience at Maison Proche de Desert for an enchanting desert adventure.
+Night: End the day at La Porta del Sahara tourist attraction for an exploration of the desert and a cultural experience.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara, a 4-star-rated restaurant located in Douz (33.4597601, 9.0244002), offers a cozy ambiance with a focus on lamb dishes, as mentioned in several reviews. Open 24 hours, it's easily accessible and provides a convenient dining experience.
+Cafeteria Africa, located in Douz, is a cafe offering a relaxing ambiance with a 4.0-star rating. Open daily from 6 AM to 8 PM, the cafe offers a wide range of beverages and snacks in a cozy setting.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+La Maison du voyageur is a 4.5-star hotel located in douz, Tunisia. This hotel is specialised in hotel stays and offers a wide range of services. It has received 13 reviews with an average rating of 4.5, highlighting its excellent quality. The hotel's phone number is 98 661 438 and its website is not available.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7456,12 +10752,71 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a tasty meal, head to Cafe Sahara on F24F+RRC Cafe Sahara, Unnamed Road. This highly-rated restaurant is a top choice for food enthusiasts, with a menu featuring a variety of dishes. Rated 4.0 out of 5, Cafe Sahara is a must-visit culinary destination. Its hours of operation are 24 hours a day, so you can satisfy your cravings anytime. For more information, you can call them at 54 336 633.</t>
+          <t>Cafe Sahara is a restaurant located in the city of Douz, Tunisia and is open 24 hours a day. It is most popular for its lamb dishes.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>If you're exploring the heart of Douz and searching for an exceptional dining experience, what highly-rated cafe on F24F+RRC Cafe Sahara offers a diverse menu and operates around the clock, making it a culinary hotspot in the region?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the vibrant Souk Douz, a renowned marketplace offering authentic desert-themed souvenirs crafted by skilled artisans.
+**Mid-Morning:**
+- Visit Musee du Sahara de Douz, an archeological museum showcasing the rich history and culture of the Sahara Desert.
+**Midday:**
+- Savor local cuisine at Sahara, a 5-star rated restaurant known for its excellent service and delicious food.
+**Afternoon:**
+- Enjoy a leisurely stroll through La Porta del Sahara, a highly rated tourist attraction offering desert exploration opportunities.
+**Evening:**
+- Take a guided tour of Sahara Desert Tunisia g', a well-reviewed travel agency known for its camel rides, tent experiences, and desert exploration.
+**Night:**
+- Experience the local culture at Chappati Iheb, a fast food restaurant offering a variety of delicious meals with a 5.0-star rating.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sahara is a 5-star rated restaurant located in Douz, Tunisia, with coordinates (33.4347514, 9.0200775). It offers a variety of dining options and is known for its excellent service and delicious food.
+La Casa Plus is a café located in Douz, Tunisia. It is rated 5.0 based on 2 reviews. The café offers a variety of food and drinks, and is located at coordinates (33.459978201876, 9.035618365702).
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7567,12 +10922,64 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, check out Cafe L'orient Douz ... mqh~ lshrq located at F24F+CJX Cafe L'orient Douz ... mqh~ lshrq, Douz. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at nan or call them at 51 059 151.</t>
+          <t>Cafe L'orient Douz is a cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). Its main category is 'Cafe' and it offers 24/7 service. Cafe L'orient Douz has received 14 reviews and has a rating of 4.9.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where in Douz can you find the highly rated Cafe L'orient Douz ... mqh~ lshrq, perfect for cafe lovers and open 24/7?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz (for authentic souvenirs and cultural immersion)
+Mid-Morning: Trying local cuisine at Restaurant SAIF (for a highly-rated dining experience)
+Midday: Visiting the Sahara Desert Museum (to learn about the region's rich history and culture)
+Afternoon: Engaging in outdoor activities, like camel riding or exploring the sand dunes (with The Sahara Desert Tunisia g' for a highly-reviewed experience)
+Evening: Relaxing with a delightful culinary experience at Overdose Pastry Coffee Shop (for exquisite pastries and coffee)
+Night: Enjoying scenic views at La Porta del Sahara (a highly-rated tourist attraction for exploring the desert and attending festivals)</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant SAIF in Douz, Tunisia, is a popular dining destination offering a variety of dishes. Its convenient location at F25G+RH2 makes it easy to access, and its hours of operation from 8 AM to 11 PM ensure that patrons can enjoy their meals at their leisure. The restaurant's rating of 4.0 out of 5 stars is a testament to its commitment to providing guests with a satisfying experience.
+Dr lswq Dar El Souk is a cafe located in Douz, Tunisia. It has a rating of 4.4 out of 5 stars on Google, and is known for offering a variety of cafe drinks and snacks. The cafe is located at the coordinates (33.4597601, 9.0244002).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7670,12 +11077,65 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a great cafe, check out dr lswq Dar El Souk located at F24F+7P8 Dr Lswq Dar El Souk. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/%D8%AF%D8%A7%D8%B1+%D8%A7%D9%84%D8%B3%D9%88%D9%82+Dar+El+Souk%E2%80%AD/data=!4m7!3m6!1s0x125687effa3c300b:0x6f00ac7c9cb8e228!8m2!3d33.4556502!4d9.0243243!16s%2Fg%2F11c1hjvxfp!19sChIJCzA8-u-HVhIRKOK4nHysAG8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Dr lswq Dar El Souk is a 4.4 stars rated Cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated cafe in Douz, offering a variety of categories and a rating of 4.4?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz, immersing yourself in the local culture and discovering unique crafts and souvenirs.
+Mid-Morning: Visit Musee du Sahara de Douz to delve into the rich archaeological heritage of the Sahara Desert, gaining insights into the lives of its inhabitants.
+Midday: Indulge in a delectable lunch at Restaurant Pizzeria Venezia, savoring authentic Italian cuisine in the heart of Douz.
+Afternoon: Engage in a thrilling camel ride organized by The Sahara Desert Tunisia g', venturing into the vast Sahara Desert and experiencing its breathtaking landscapes.
+Evening: As the sun sets, head to La Porta del Sahara for an enchanting evening of desert exploration and festival participation, soaking in the region's vibrant cultural traditions.
+Night: Relax and rejuvenate at Maison Proche de Desert, enjoying the authentic ambiance of traditional tents and indulging in freshly baked bread and delicious local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara is a restaurant located in the city of Douz, Tunisia and is open 24 hours a day. It is most popular for its lamb dishes.
+Douz's Cafe de la Republique is a well-rated cafe that serves a variety of food and drinks. It is located at the following coordinates: 33.4555822, 9.0253572. The cafe is open from 5:30am to 1:00am, and is closed on Sundays. Cafe de la Republique has a 4.0-star rating on Google, and has received 7 reviews.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7777,13 +11237,71 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great family restaurant, check out Restaurant pizza Venezia at F25C+7RG. 
-This highly-rated spot offers a delicious selection of Italian cuisine and has a rating of 4.1. To get there, use these GPS coordinates: 43.766761, -80.058194. For more details, visit their website or call them at 28 604 035.</t>
+          <t>**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>For a memorable family dining experience while exploring Douz, which highly-rated Italian restaurant with GPS coordinates 43.766761, -80.058194 is a top choice?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Exploring La Porta del Sahara:** Discover the unique desert landscape and attend vibrant festivals.
+**Mid-Morning:**
+* **Trying local cuisine at Magic Food:** Savor traditional Tunisian dishes in a cozy ambiance.
+**Midday:**
+* **Visiting the Musee du Sahara de Douz:** Immerse yourself in the rich archaeological heritage of the Sahara.
+**Afternoon:**
+* **Enjoying a desert experience at Sahara Douz:** Experience the grandeur of the Sahara Desert with luxurious amenities and adventurous activities.
+**Evening:**
+* **Taking a guided tour of Souk Douz:** Explore the vibrant market and find authentic desert-themed souvenirs.
+**Night:**
+* **Relaxing with a spa treatment at Maison Proche de Desert:** Rejuvenate after a day of exploration in a peaceful guest house.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Sahara" is a highly-rated restaurant located in douz. It focuses on offering , with an average customer rating of 5.0. The establishment is located at coordinates (33.4347514, 9.0200775).
+mntzh `rft is a cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is open 24 hours a day. The cafe is located at (33.4597601, 9.0244002).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7885,12 +11403,67 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a cozy cafe, check out Cafe de la Republique located at F24G+74H C206, Douz. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-01:00, and closed on []. To get there, use these GPS coordinates: 33.4555822, 9.0253572. For more details, visit their website or call them at 75 470 011.</t>
+          <t>Douz's Cafe de la Republique is a well-rated cafe that serves a variety of food and drinks. It is located at the following coordinates: 33.4555822, 9.0253572. The cafe is open from 5:30am to 1:00am, and is closed on Sundays. Cafe de la Republique has a 4.0-star rating on Google, and has received 7 reviews.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Question: Where can you find a highly-rated cafe with a cozy ambiance in Douz, offering a variety of coffee drinks and great reviews?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Douz, the heart of Douz's culture and commerce.
+Mid-Morning: Visit the Sahara Museum to gain insights into the region's rich history and culture.
+Midday: Try local cuisine at Chez Magic, a restaurant offering traditional Tunisian dishes.
+Afternoon: Enjoy a camel ride through the Sahara Desert, organized by The Sahara Desert Tunisia g'.
+Evening: Attend a local festival in the town center to experience the vibrant atmosphere and local traditions.
+Night: Relax and stargaze at the Sahara Douz hotel, an elegant oasis with stunning views of the desert.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Chez Magic" is a restaurant in Douz, Tunisia. It's located on Avenue des Martyrs and offers a variety of dishes, with a focus on traditional Tunisian cuisine. 
+The restaurant has a 4.3-star rating on Google with 3 reviews and is open from 10:00 AM to 10:00 PM. 
+It's located at coordinates (33.1380679, 9.0778647).
+Cafe Azouza is a popular cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is known for its friendly staff and great atmosphere. The cafe is located at 33.4597601, 9.0244002 and is open from Monday to Sunday.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Nestled in the heart of the mesmerizing Sahara Desert, Sahara Douz welcomes guests with its elegant ambiance and luxurious amenities. This exquisite hotel boasts an array of facilities, including a rejuvenating spa, sparkling indoor and outdoor swimming pools, and a selection of dining options offering tantalizing culinary delights. Situated in the picturesque location of Douz (43.934563986927, -70.328186010163), Sahara Douz is the perfect oasis for travelers seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7992,12 +11565,65 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out cafe saraya located at F2CF+M43 cafe saraya, C206. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>Cafe Saraya is a popular spot in Douz, Tunisia, offering a cozy atmosphere and a wide range of beverages. It's conveniently located at (33.4597601, 9.0244002) and is open 24 hours a day serving coffee, tea, and other drinks. With a 5-star rating and positive reviews, Cafe Saraya is a great place to relax and enjoy a cup of your favorite drink.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly-rated cafe with a 5.0 rating, known for its diverse cafe menu and open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Exploring the bustling Souk Douz, immersing in the vibrant local culture and discovering unique handicrafts.
+Mid-Morning: Indulging in a delightful traditional meal at Magic Food, a family-friendly restaurant offering a taste of local cuisine.
+Midday: Visiting the Musee du Sahara de Douz to delve into the rich archaeological heritage of the Sahara, gaining insights into the lives of its inhabitants.
+Afternoon: Embarking on a guided camel ride through the awe-inspiring Sahara Desert, organized by The Sahara Desert Tunisia g', capturing the essence of this iconic landscape.
+Evening: Experiencing the vibrant La Porta del Sahara, a popular tourist attraction, immersing in the local festivals and cultural performances that bring the desert alive.
+Night: Relaxing and rejuvenating with a soothing spa treatment at Le Saharien Paradise hotel, indulging in the tranquility of the desert oasis.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant "Chez Magic" is located in Douz, Tunisia at coordinates (33.1380679, 9.0778647). It offers a dining experience with an average rating of 4.3 out of 5 stars based on 3 reviews. The restaurant is open from 10:00 AM to 10:00 PM every day. To contact the restaurant, you can call 21 731 781.
+Cafe Azouza is a cafe located in Douz, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is located at coordinates (33.4597601, 9.0244002).
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Le Saharien Paradise is a well-rated hotel located in Douz, Tunisia. It features amenities such as Wi-Fi, breakfast, and parking, providing a comfortable and convenient stay. Enjoy the local hospitality in this hotel settled at the coordinates (33.4457294, 9.0260644).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8103,14 +11729,65 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a great family restaurant, check out Magic food located at F25C+RGJ. 
-This top-rated destination is perfect for Restaurant familial lovers. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100088987624929%26mibextid%3DZbWKwL or call them at 22 880 889.</t>
+          <t>Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated family restaurant called Magic Food known for its exceptional dining experience in the Douz area?</t>
+          <t>Day Plan:
+Morning: Explore the vibrant Souk Douz (marketplace) for unique desert-themed souvenirs and local crafts.
+Mid-Morning: Visit the Musee du Sahara de Douz to delve into the region's archaeological heritage through captivating artifacts and exhibits.
+Midday: Savor traditional Tunisian cuisine at Restaurant La Porte De Sahara, renowned for its delectable soups, entrees, and couscous.
+Afternoon: Embark on a thrilling camel ride through the Sahara Desert, arranged by The Sahara Desert Tunisia g', a reputable travel agency that offers desert exploration experiences.
+Evening: Explore the scenic nature and enjoy breathtaking views at La Porta del Sahara, a highly rated tourist attraction with historical significance.
+Night: Immerse in the local culture and attend a captivating festival in the heart of Douz, showcasing the town's lively traditions and vibrant atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Porte De Sahara is a highly-rated (4.9 out of 5) restaurant located in Douz, Tunisia. It offers traditional Tunisian cuisine, including soups, entrees, briks, couscous, and vegetarian options. The restaurant has a wide selection of dishes and caters to the Muslim community during Ramadan. It is also well-known for its friendly staff and convenient location. The restaurant is open from 8:00 AM to 10:00 PM and closed on Fridays.
+Cafe Azouza is a cafe located in Douz, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is located at coordinates (33.4597601, 9.0244002).
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Le Saharien Paradise is a well-rated hotel located in Douz, Tunisia. It features amenities such as Wi-Fi, breakfast, and parking, providing a comfortable and convenient stay. Enjoy the local hospitality in this hotel settled at the coordinates (33.4457294, 9.0260644).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8212,12 +11889,65 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in Douz and looking for a delicious pizza, check out Vero gusto located at F24C+F7G. This top-rated Pizzeria is perfect for pizza lovers and is open during the hours of operation. It's closed on [] . To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, call them at 93 610 257.</t>
+          <t>Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Pizzeria in Douz, Tunisia, with the specific address and GPS coordinates provided?</t>
+          <t>Day Plan:
+Morning: Exploring La Porta del Sahara
+Mid-Morning: Trying local cuisine at Restaurant ElBey
+Midday: Visiting Musee du Sahara de Douz
+Afternoon: Enjoying a desert experience at Sahara Douz
+Evening: Shopping at Souk Douz
+Night: Relaxing with a camel ride at Maison Proche de Desert</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant ElBey, located in Douz (50.109024, 8.667558), is a highly-rated (4.1 stars) restaurant with 279 reviews. It offers a unique dining experience amidst the desert landscapes of southern Tunisia. Step into a world of magic decor, where tents and palm trees create a captivating ambiance. The restaurant serves delicious cuisine and provides impeccable service. With a focus on local flavors and a no-alcohol policy, Restaurant ElBey promises an unforgettable dining journey in the heart of the Sahara Desert.
+MqH~ is a popular cafe in Douz, Tunisia, with a 4.8 rating based on 4 reviews. It features a cozy atmosphere and a menu with various cafe-style offerings. Geographically, it is located at 33.4597601 latitude and 9.0244002 longitude and can be found at F25C+223. Its primary category is Cafe.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8323,14 +12053,65 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out patisserie abderrahim. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-19:30, but closed on []. To get there, use these GPS coordinates: 33.2432696, -8.5258896. For more details, visit their website or call them at 97 570 019.</t>
+          <t>"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>What is the highly rated destination in Douz that is a must-visit for Restaurant lovers, especially known for its Restaurant offerings?</t>
+          <t>Day Plan:
+Morning: Explore the Souk Douz
+Mid-Morning: Try local cuisine at Patisserie Abderrahim
+Midday: Visit La Porta del Sahara
+Afternoon: Enjoy camel rides at The Sahara Desert Tunisia g'
+Evening: Participate in a traditional festival in Douz
+Night: Relax with a traditional meal at Maison Proche de Desert</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.
+Dr lswq Dar El Souk is a cafe located in Douz, Tunisia. It has a rating of 4.4 out of 5 stars on Google, and is known for offering a variety of cafe drinks and snacks. The cafe is located at the coordinates (33.4597601, 9.0244002).
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8432,12 +12213,74 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Compagnie Des Sables Douz located at C2J8+PPH Compagnie Des Sables Douz, zone touristique, Douz. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 15:00-00:00. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/Compagnie+Des+Sables+Douz/data=!4m7!3m6!1s0x125687d71fba09d9:0x3dce694a533a6e66!8m2!3d33.4318051!4d9.0168703!16s%2Fg%2F11d_2bk40g!19sChIJ2Qm6H9eHVhIRZm46U0ppzj0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Compagnie Des Sables Douz is a restaurant located in Douz, Tunisia. It's highly rated with 4.8 out of 5 stars on Google. Unfortunately, there is no additional information available on its website or phone number.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a 4.8 rating, perfect for restaurant lovers, and open from 15:00 to 00:00 in Douz?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the vibrant marketplace of **Souk Douz** for authentic souvenirs and local crafts.
+**Mid-Morning:**
+- Visit the **Musee du Sahara de Douz** for insights into the region's history and culture.
+**Midday:**
+- Lunch at **Magic Food** and indulge in traditional Tunisian cuisine in a family-friendly setting.
+**Afternoon:**
+- Try local pastries and coffee at **Overdose Pastry Coffee Shop**.
+- Take a refreshing dip in the outdoor pool at **Sun Palm Douz**.
+**Evening:**
+- Embark on a camel ride in the Sahara Desert with **The Sahara Desert Tunisia g'**.
+- Enjoy a sunset dinner at **TEJ ELKHAYEM**.
+**Night:**
+- Experience the local ambiance at **Chappati Iheb** for a quick yet satisfying fast food meal.
+- Relax with a traditional hammam (Turkish bath) at **Maison Proche de Desert**.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+TEJ ELKHAYEM is a restaurant located on C2MG+4W7 in the tourist area of Douz, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 6am to midnight, seven days a week. It has a 4.4-star rating on Google, with many positive reviews mentioning the friendly staff, delicious food, and beautiful views.
+MqH~ is a popular cafe in Douz, Tunisia, with a 4.8 rating based on 4 reviews. It features a cozy atmosphere and a menu with various cafe-style offerings. Geographically, it is located at 33.4597601 latitude and 9.0244002 longitude and can be found at F25C+223. Its primary category is Cafe.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8543,14 +12386,66 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Restaurant "Chez Magic" located at Avenue des Martyrs, Douz 4260. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on unspecified days. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at nan or call them at 21 731 781.</t>
+          <t>"Chez Magic" is a restaurant in Douz, Tunisia. It's located on Avenue des Martyrs and offers a variety of dishes, with a focus on traditional Tunisian cuisine. 
+The restaurant has a 4.3-star rating on Google with 3 reviews and is open from 10:00 AM to 10:00 PM. 
+It's located at coordinates (33.1380679, 9.0778647).</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly-rated restaurant with a wide selection of dining options, making it a must-visit spot for restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the Sahara Museum, a renowned heritage museum showcasing the rich history and culture of the region.
+Mid-Morning: Try local cuisine at Cafe Total Walid, a highly-rated cafe offering a variety of food and drinks, with a 4.0 rating based on 1 review.
+Midday: Visit La Porta del Sahara, a highly rated tourist attraction with an average rating of 4.2 based on 60 reviews, popular for exploring the desert and attending festivals.
+Afternoon: Take a guided tour of Souk Douz, a renowned marketplace located in Douz, Tunisia, popular for its unique collection of desert-themed souvenirs.
+Evening: Enjoy scenic views at the dunes of the Sahara Desert, known for its breathtaking landscapes and tranquility.
+Night: Engage in outdoor activities like sandboarding or dune bashing at the Sahara Desert, offering a thrilling and adventurous experience.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Sahara" is a highly-rated restaurant located in douz. It focuses on offering , with an average customer rating of 5.0. The establishment is located at coordinates (33.4347514, 9.0200775).
+Cafe Total Walid is a cafe located in Douz, Tunisia. It has a 4.0 rating based on 1 review. The cafe offers a variety of food and drinks, and is located near the center of Douz. The cafe is open every day of the week and its latitude and longitude are 33.4597601, 9.0244002.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8648,14 +12543,64 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Fast food klt sry`@. 
-This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly rated destination known for its Restauration rapide offerings?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a renowned marketplace offering a vibrant collection of desert-themed souvenirs handcrafted by skilled artisans.
+Mid-Morning: Visit Musee du Sahara de Douz, an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert.
+Midday: Try local cuisine at Discover Restaurant SAIF, a highly-rated restaurant offering a diverse menu of dishes, catering to various tastes and preferences.
+Afternoon: Take a guided tour of La Porta del Sahara, a highly-rated tourist attraction that showcases the unique and captivating beauty of the desert.
+Evening: Participate in a camel ride offered by The Sahara Desert Tunisia g', a well-reviewed travel agency, to experience the vast expanse of the desert.
+Night: Relax with a rejuvenating spa treatment at Sahara Douz, an elegant hotel offering a range of luxurious amenities in a chateau-like ambiance.</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Restaurant SAIF, a highly-rated restaurant located in Douz at the coordinates (34.1070436, 35.8976343). This establishment offers a diverse menu of dishes, catering to various tastes and preferences. Its convenient work hours, from 8:00 am to 11:00 pm, make it an ideal dining destination throughout the day. With its warm ambiance and friendly staff, Restaurant SAIF promises a memorable culinary experience for all who visit.
+Café Saraya, located at F2CF+M43 in Douz, Tunisia, is a 5-star rated cafe that is open 24 hours a day. It offers a cozy and welcoming atmosphere for customers to enjoy their coffee and snacks. Its exact coordinates are (33.4597601, 9.0244002), making it easily accessible to those in the area.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8761,12 +12706,65 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, head to Cafe Clasico , Douz located at F23C+34H Cafe Clasico , Douz, rue de Hnich, Douz. This top-rated destination is perfect for cafe lovers and offers a great atmosphere. With a rating of 5.0, it's a must-visit spot. If you need directions, here are the GPS coordinates: 33.4597601, 9.0244002. For more details, please visit their website or call them at 90 212 317.</t>
+          <t>Café Clasico, located in the heart of Douz at the crossroads of rue de Hnich and F23C+34H, is a cozy café offering a warm and inviting atmosphere. As you step inside, you'll be greeted by the aroma of freshly brewed coffee and the sound of locals chatting away. With its convenient 24-hour opening hours, Café Clasico is the perfect spot to grab a caffeine fix or a bite to eat at any time of day or night.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a cozy atmosphere in Douz, with precise GPS coordinates provided?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz
+Mid-Morning: Trying local cuisine at TEJ ELKHAYEM
+Midday: Visiting Musee du Sahara de Douz
+Afternoon: Enjoying scenic views at La Porta del Sahara
+Evening: Participating in an event at La Maison du voyageur
+Night: Relaxing with a cup of coffee at Cafe Saraya</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+TEJ ELKHAYEM is a restaurant located on C2MG+4W7 in the tourist area of Douz, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 6am to midnight, seven days a week. It has a 4.4-star rating on Google, with many positive reviews mentioning the friendly staff, delicious food, and beautiful views.
+Cafe Saraya is a popular spot in Douz, Tunisia, offering a cozy atmosphere and a wide range of beverages. It's conveniently located at (33.4597601, 9.0244002) and is open 24 hours a day serving coffee, tea, and other drinks. With a 5-star rating and positive reviews, Cafe Saraya is a great place to relax and enjoy a cup of your favorite drink.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+La Maison du voyageur is a 4.5-star hotel located in douz, Tunisia. This hotel is specialised in hotel stays and offers a wide range of services. It has received 13 reviews with an average rating of 4.5, highlighting its excellent quality. The hotel's phone number is 98 661 438 and its website is not available.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8864,12 +12862,65 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Restaurant, check out sahara located at F22M+P84 sahara, Douz. With a rating of 5.0, this is a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/sahara/data=!4m7!3m6!1s0x125687fc9fbfe125:0x7232ee20a3b64ec6!8m2!3d33.4517682!4d9.0333332!16s%2Fg%2F11hfnd915s!19sChIJJeG_n_yHVhIRxk62oyDuMnI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Sahara is a 5-star rated restaurant located in Douz, Tunisia, with coordinates (33.4347514, 9.0200775). It offers a variety of dining options and is known for its excellent service and delicious food.</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where in Douz can you find the highly-rated Restaurant Sahara with a perfect score of 5.0, easily accessible via website or phone?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz, a bustling marketplace offering traditional and modern goods
+Mid-Morning: Trying local cuisine at Cafe Sahara, a 4-star-rated restaurant specializing in lamb dishes
+Midday: Visiting Musee du Sahara de Douz, an archeological museum showcasing the rich history and culture of the Sahara desert
+Afternoon: Enjoying a camel ride through the Sahara Desert with The Sahara Desert Tunisia g' travel agency
+Evening: Participating in a traditional festival in Douz, known for its lively atmosphere and cultural performances
+Night: Relaxing at Maison Proche de Desert, a popular guest house offering a unique desert experience with cozy tents and delicious local cuisine</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara, a 4-star-rated restaurant located in Douz (33.4597601, 9.0244002), offers a cozy ambiance with a focus on lamb dishes, as mentioned in several reviews. Open 24 hours, it's easily accessible and provides a convenient dining experience.
+Cafe L'orient Douz ... mqh~ lshrq is a highly rated (4.9) cafe located in Douz, Tunisia at (33.4597601, 9.0244002). it's open 24/7 and offers a cozy ambiance for enjoying coffee and drinks.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8971,12 +13022,71 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Restauration rapide spot, check out Le_Bon_Jour_12 located at F25P+WCF Le_Bon_Jour_12, Douz. This destination is perfect for Restauration rapide lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at  or call them at 20 797 527.</t>
+          <t>Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>What is the name and GPS coordinates of the highly-rated Restauration rapide spot in Douz?</t>
+          <t>Day Plan:
+Morning:
+- Take a guided tour of Souk Douz to witness a vibrant display of local culture and find unique souvenirs.
+- Learn about the rich history and heritage of the Sahara at Musee du Sahara de Douz.
+Mid-Morning:
+- Indulge in authentic Tunisian flavors at Casa Catering, known for its delicious pizzas.
+Midday:
+- Visit La Porta del Sahara for a remarkable desert exploration experience.
+Afternoon:
+- Try sandboarding or camel riding in the Sahara Desert Tunisia g'.
+Evening:
+- Join the lively festival at Festival de Douz, showcasing the music, dance, and traditions of the region.
+Night:
+- Relax with friends or family at Sahara Museum, where you can learn about the cultural heritage of the Sahara.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Casa Catering, located in Douz (41.0269148, 28.9761197), is a highly-rated restaurant known for its delicious pizzas, as evidenced by its 4.8-star rating from 35 reviews. It is open from 8 pm to 12:30 am and offers a cozy atmosphere for diners looking to satisfy their craving for Italian cuisine.
+Douz's Cafe de la Republique is a well-rated cafe that serves a variety of food and drinks. It is located at the following coordinates: 33.4555822, 9.0253572. The cafe is open from 5:30am to 1:00am, and is closed on Sundays. Cafe de la Republique has a 4.0-star rating on Google, and has received 7 reviews.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9070,14 +13180,65 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Chappati Iheb. 
-This top-rated destination is perfect for Restauration rapide lovers. 
-With a rating of 5.0, it's a must-visit spot. Its GPS coordinates are: {latitude}, {longitude}. For more details, visit their  link at https://www.google.com/maps/place/Chappati+Iheb/data=!4m7!3m6!1s0x125687ea50133935:0xa1bde0799599f88b!8m2!3d33.4582443!4d9.0223255!16s%2Fg%2F11sdfxqz89!19sChIJNTkTUOqHVhIRi_iZlXngvaE?authuser=0&amp;hl=fr&amp;rclk=1 .</t>
+          <t>Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination in Douz for "Restauration rapide" lovers, located at specific GPS coordinates and with a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a renowned marketplace offering unique desert-themed souvenirs handcrafted by skilled artisans.
+Mid-Morning: Visit Musee du Sahara de Douz, an archeological museum that provides a glimpse into the rich history and culture of the Sahara desert.
+Midday: Try local cuisine at Dar Ali Baba, a highly rated restaurant in Douz known for its traditional Tunisian dishes and unique dining experience.
+Afternoon: Enjoy a relaxing camel ride through the Sahara Desert, organized by The Sahara Desert Tunisia g', a well-reviewed travel agency.
+Evening: Experience traditional Sahrawi music and dance performances at La Porta del Sahara, a popular tourist attraction offering a vibrant desert ambiance.
+Night: Stay at Maison Proche de Desert, a popular guest house in the Sahara Desert known for its authentic tents and cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Ali Baba is a highly rated restaurant in Douz, Tunisia. It offers a unique dining experience with a menu that features traditional Tunisian cuisine. The restaurant is located at F27J+CC Dar Ali baba, Douz and can be contacted by phone at 25 493 907.
+Cafe Azouza is a popular cafe located in Douz, Tunisia. It offers a variety of food and drinks, and is known for its friendly staff and great atmosphere. The cafe is located at 33.4597601, 9.0244002 and is open from Monday to Sunday.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9179,12 +13340,65 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great Cafe experience, check out la casa plus located at F25G+9R7 la casa plus, Avenue Mohamed Marzougui. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.459978201876, 9.035618365702. For more details, visit their link at https://www.google.com/maps/place/la+casa+plus/data=!4m7!3m6!1s0x125687f901f623d7:0xd9ae1bfca7beefd!8m2!3d33.4585095!4d9.0270445!16s%2Fg%2F11vkjkv0ls!19sChIJ1yP2AfmHVhIR_e57yr_hmg0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 218 690.</t>
+          <t>La Casa Plus is a cafe located in Douz, Tunisia, offering a cozy and comfortable atmosphere. It is situated along Avenue Mohamed Marzougui, with the exact coordinates of (33.459978201876, 9.035618365702). The cafe has received positive reviews, earning a rating of 5.0 stars from customers.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe experience with excellent reviews in Douz, complete with GPS coordinates and contact information?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a bustling marketplace with traditional and modern goods.
+Mid-Morning: Visit Musee du Sahara de Douz to discover the rich archaeological heritage of the Sahara.
+Midday: Try local cuisine at Pizzeria Marella, known for its delicious pizzas and cozy atmosphere.
+Afternoon: Take a guided tour of La Porta del Sahara, a popular tourist attraction with opportunities for exploring the desert and attending festivals.
+Evening: Participate in a camel trekking experience offered by Sahara Desert Tunisia g' to enjoy the unique desert landscape.
+Night: Relax with a traditional Tunisian dinner and cultural performance at Maison d'hote Murmures de civilisation.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara is a restaurant located in the city of Douz, Tunisia and is open 24 hours a day. It is most popular for its lamb dishes.
+Douz's Cafe de la Republique is a well-rated cafe that serves a variety of food and drinks. It is located at the following coordinates: 33.4555822, 9.0253572. The cafe is open from 5:30am to 1:00am, and is closed on Sundays. Cafe de la Republique has a 4.0-star rating on Google, and has received 7 reviews.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9282,12 +13496,64 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Restaurant belhabib located at Restaurant belhabib, Douz. This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Restaurant+belhabib/data=!4m7!3m6!1s0x125687cc45ac99bf:0xab787df45a95d570!8m2!3d33.4551648!4d9.0257011!16s%2Fg%2F11s93xt9nw!19sChIJv5msRcyHVhIRcNWVWvR9eKs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Belhabib in Douz, Tunisia (lon: 49.2518396, lat: 2.4670449), offers a 5-star dining experience, as per its average user rating. Reviews are limited, so keep that in mind when planning, but its main category is listed as "Hotel", suggesting it may be a part of a larger hotel complex. The restaurant's highlighted image showcases an enticing outdoor dining area, so consider booking a table to experience it firsthand.</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>What is the highly-rated Hotel destination with a 5.0 rating located in Douz?</t>
+          <t>Day Plan:
+Morning: Explore the captivating landscapes of the Sahara Desert at La Porta del Sahara.
+Mid-Morning: Visit Musee du Sahara de Douz to delve into the rich history and heritage of the region.
+Midday: Savour the authentic flavours of local cuisine at highly-rated Restaurant El Bey amidst the enchanting desert ambiance.
+Afternoon: Shop for unique desert-themed souvenirs at the vibrant Souk Douz, immersing yourself in the town's lively atmosphere.
+Evening: Witness the breathtaking sunset over the dunes with a camel ride.
+Night: Relax and unwind at Maison d'hote Murmures de civilisation, enjoying the desert culture and delicious local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant ElBey, located in Douz (50.109024, 8.667558), is a highly-rated (4.1 stars) restaurant with 279 reviews. It offers a unique dining experience amidst the desert landscapes of southern Tunisia. Step into a world of magic decor, where tents and palm trees create a captivating ambiance. The restaurant serves delicious cuisine and provides impeccable service. With a focus on local flavors and a no-alcohol policy, Restaurant ElBey promises an unforgettable dining journey in the heart of the Sahara Desert.
+Café Expresso is a highly-rated cafe located in Douz, Tunisia, at coordinates (33.1380679, 9.0778647). With a rating of 5.0 based on 2 reviews, this cafe specializes in offering a cozy and enjoyable ambiance for its patrons.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+Sahara Museum is a heritage museum located in douz. It opens from 09:30-16:30 on weekdays and is closed on Mondays. The museum showcases the rich cultural heritage of the Sahara desert, with exhibits on the history, culture, and people of the region. Visitors can learn about the traditional way of life of the Sahrawi people, their customs, and traditions. The museum also has a collection of artifacts and objects from the Sahara desert, including fossils, pottery, and jewelry.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9393,12 +13659,65 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Restaurant, check out Restaurant SAIF located at F25G+RH2 Restaurant SAIF, Douz. This destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on none. To get there, use these GPS coordinates: 34.1070436, 35.8976343. For more details, visit their website at https://www.google.com/maps/place/Restaurant+SAIF/data=!4m7!3m6!1s0x1256871e3547cfd9:0xe02f128159115e00!8m2!3d33.4595198!4d9.0263875!16s%2Fg%2F11g192lysz!19sChIJ2c9HNR6HVhIRAF4RWYESL-A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 279 293.</t>
+          <t>Restaurant SAIF in Douz, Tunisia, is a popular dining destination offering a variety of dishes. Its convenient location at F25G+RH2 makes it easy to access, and its hours of operation from 8 AM to 11 PM ensure that patrons can enjoy their meals at their leisure. The restaurant's rating of 4.0 out of 5 stars is a testament to its commitment to providing guests with a satisfying experience.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant (4.0) with a wide selection of categories in Douz, open from 08:00 to 23:00?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a bustling marketplace offering traditional and modern goods.
+Mid-Morning: Visit Musee du Sahara de Douz, an archaeological museum showcasing the rich history and culture of the Sahara desert.
+Midday: Try local cuisine at Restaurant Pizzeria Venezia, a family-friendly restaurant serving delectable pizzas.
+Afternoon: Embark on a camel ride with The Sahara Desert Tunisia g', a well-reviewed travel agency, to experience the vast and enchanting Sahara Desert.
+Evening: Witness the vibrant rituals and performances at La Porta del Sahara, a highly rated tourist attraction known for its desert festivals.
+Night: Relax and rejuvenate with a soothing massage at Sahara Douz, an elegant hotel offering a range of luxurious amenities.</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Restaurant La Porte De Sahara is located in Douz, Tunisia, at coordinates (32.6795736, -4.7279985). This restaurant offers traditional Tunisian cuisine, including brik, couscous, and soup. It is open daily from 8:00 AM to 10:00 PM and has received positive reviews, with a rating of 4.9 out of 5 stars.
+Café Expresso is a highly-rated cafe located in Douz, Tunisia, at coordinates (33.1380679, 9.0778647). With a rating of 5.0 based on 2 reviews, this cafe specializes in offering a cozy and enjoyable ambiance for its patrons.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9496,12 +13815,70 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>In douz, Dar Ali baba, a top-rated Restaurant, is the perfect destination for Restaurant enthusiasts. With a 5.0 rating, it's a must-visit spot located at F27J+CC in Douz. The restaurant is open during weekday_timing and closed on closed_on. To get there, use GPS coordinates (33.4597601, 9.0244002).</t>
+          <t>Dar Ali Baba is a highly-rated restaurant with a 5.0 rating based on one review. Located in Douz at (33.4597601, 9.0244002), this restaurant specializes in providing dining services and falls under the main category of Restaurant.</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>Which top-rated restaurant with a 5.0 rating is a must-visit in Douz, located near GPS coordinates (33.4597601, 9.0244002)?</t>
+          <t>Day Plan:
+**Morning:**
+* Exploring Souk Douz, a bustling marketplace with a vibrant collection of desert-themed souvenirs handcrafted by skilled artisans.
+**Mid-Morning:**
+* Visiting Musee du Sahara de Douz, an archeological museum that offers a glimpse into the rich history and culture of the Sahara desert.
+**Midday:**
+* Trying local cuisine at Le biscuit Douz, a 5-star rated patisserie located in the souk, known for its delicious pastries.
+**Afternoon:**
+* Enjoying a guided tour of La Porta del Sahara, a highly-rated tourist attraction with an average rating of 4.2, offering the opportunity to explore the desert and attend festivals.
+**Evening:**
+* Participating in a camel ride offered by Sahara Desert Tunisia g', a well-reviewed travel agency with a 4.7 rating, to experience the beauty and wonder of the vast Sahara Desert.
+**Night:**
+* Relaxing in a cozy atmosphere at Fast Food KLT Sry`@, a highly-rated fast food restaurant in Douz, known for its excellent service and delicious food.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.
+La Casa Plus is a café located in Douz, Tunisia. It is rated 5.0 based on 2 reviews. The café offers a variety of food and drinks, and is located at coordinates (33.459978201876, 9.035618365702).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Located in the heart of the Sahara desert in Douz, Tunisia, Sahara Douz is an elegant hotel offering a unique blend of comfort and adventure. Its chateau-like architecture features a restaurant, bars, indoor and outdoor swimming pools, and a spa. With 951 positive reviews, the hotel boasts a 4.0 rating. Sahara Douz is a popular destination for guests looking to explore the desert, relax in the oasis, or embark on exciting camel or excursion adventures. Its convenient location in the tourist zone of Douz makes it an ideal base for exploring the area and enjoying the local culture.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9593,10 +13970,72 @@
           <t>douz</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).</t>
+        </is>
+      </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>What is the name of the undisclosed yet enchanting destination that holds untold secrets and promises an extraordinary adventure?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the vibrant Souk Douz, a marketplace known for its unique desert-themed souvenirs.
+**Mid-Morning:**
+* Visit the Musee du Sahara de Douz to delve into the rich archaeological heritage of the region.
+**Midday:**
+* Savor local cuisine at the highly-rated Restaurant ElBey, known for its delicious food and captivating desert ambiance.
+**Afternoon:**
+* Enjoy a breathtaking camel ride through the Sahara Desert with The Sahara Desert Tunisia g'.
+**Evening:**
+* Attend a traditional festival in Douz, showcasing the vibrant local culture.
+**Night:**
+* Relax and enjoy the cozy ambiance of Fast Food KLT Sry`@, serving delicious food and offering excellent service.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant ElBey, located in Douz (50.109024, 8.667558), is a highly-rated (4.1 stars) restaurant with 279 reviews. It offers a unique dining experience amidst the desert landscapes of southern Tunisia. Step into a world of magic decor, where tents and palm trees create a captivating ambiance. The restaurant serves delicious cuisine and provides impeccable service. With a focus on local flavors and a no-alcohol policy, Restaurant ElBey promises an unforgettable dining journey in the heart of the Sahara Desert.
+Cafe Saraya is a popular spot in Douz, Tunisia, offering a cozy atmosphere and a wide range of beverages. It's conveniently located at (33.4597601, 9.0244002) and is open 24 hours a day serving coffee, tea, and other drinks. With a 5-star rating and positive reviews, Cafe Saraya is a great place to relax and enjoy a cup of your favorite drink.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Maison d'hote Murmures de civilisation is a highly-rated guesthouse located in Douz, Tunisia. The guesthouse offers a unique experience, with its focus on desert culture. It offers a variety of accommodations, including tents and traditional Tunisian rooms. Guests can enjoy a variety of activities, such as camel trekking and沙漠游览. The guesthouse is also within easy walking distance of the city center.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum is a cultural institution located in the desert region of Douz (33°27'35.1"N 9°01'27.8"E). It showcases the rich heritage and traditions of the Sahara region, offering visitors a glimpse into its history, art, music, and way of life. The museum presents various exhibits and displays, providing an immersive experience for those interested in exploring the culture and history of this fascinating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9698,12 +14137,64 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Pizzeria Marella located at F24G+Q8Q Pizzeria Marella, Douz. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 39.889796, 18.3687945. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Marella/data=!4m7!3m6!1s0x125687002938246d:0xec71c4f3abe5b8af!8m2!3d33.4567955!4d9.0243639!16s%2Fg%2F11y2j_b2fz!19sChIJbSQ4KQCHVhIRr7jlq_PEcew?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 319 288.</t>
+          <t>Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria in Douz, with a 5.0 rating and a range of Pizzeria categories?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a renowned marketplace offering unique desert-themed souvenirs.
+Mid-Morning: Visit the Musee du Sahara in Douz, an archeological museum showcasing the Sahara Desert's rich history and culture.
+Midday: Try local cuisine at Magic food, a family restaurant offering a variety of dishes in a cozy ambiance.
+Afternoon: Enjoy a guided tour of La Porta del Sahara, a popular tourist attraction known for its desert exploration and festival offerings.
+Evening: Take a camel ride in the Sahara Desert with The Sahara Desert Tunisia g', a well-reviewed travel agency.
+Night: Relax at Hotel 20 mars, a 4.1-rated hotel offering great value for money and a convenient location near the desert.</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara, a 4-star-rated restaurant located in Douz (33.4597601, 9.0244002), offers a cozy ambiance with a focus on lamb dishes, as mentioned in several reviews. Open 24 hours, it's easily accessible and provides a convenient dining experience.
+Cafe de la Republique is a café located in Douz, Tunisia. It is open from 5:30 AM to 1:00 AM, and serves a variety of drinks and snacks. The café is rated 4.0 stars on Google, and has received 7 reviews. It is located at the coordinates (33.4555822, 9.0253572).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9809,12 +14300,65 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great cafe, check out Cafe Jdayda located at F24G+CC7 Cafe Jdayda, Rue Yahia Ben mhemed, Douz 4260.  This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:30-23:30. To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website at https://www.google.com/maps/place/Cafe+Jdayda/data=!4m7!3m6!1s0x125687936739113f:0x19b55a57c137eb57!8m2!3d33.4560183!4d9.0259166!16s%2Fg%2F11ssx6pgk5!19sChIJPxE5Z5OHVhIRV-s3wVdatRk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 517 824.</t>
+          <t>Cafe Jdayda is a cafe located in Douz, Tunisia. It's open from 04:30 to 23:30 and is rated 5.0 stars. It's located at F24G+CC7 Cafe Jdayda, Rue Yahia Ben mhemed, Douz 4260 and can be contacted at 20 517 824.</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe in Douz with a perfect 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz
+Mid-Morning: Trying local cuisine at Restaurant SAIF
+Midday: Visiting Musee du Sahara de Douz
+Afternoon: Camel riding in the Sahara Desert Tunisia g'
+Evening: Enjoying scenic views at La Porta del Sahara
+Night: Relaxing with a traditional Hammam at Maison Proche de Desert</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Restaurant SAIF, a highly-rated restaurant located in Douz at the coordinates (34.1070436, 35.8976343). This establishment offers a diverse menu of dishes, catering to various tastes and preferences. Its convenient work hours, from 8:00 am to 11:00 pm, make it an ideal dining destination throughout the day. With its warm ambiance and friendly staff, Restaurant SAIF promises a memorable culinary experience for all who visit.
+Cafe Azouza is a cafe located in Douz, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is located at coordinates (33.4597601, 9.0244002).
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9916,16 +14460,67 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Le biscuit Douz located at Le biscuit Douz, souk, Douz 4260. 
-This top-rated destination is perfect for Patisserie lovers and offers a range of Patisserie to choose from. 
-With a rating of 5.0, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.1380679, 9.0778647. For more details, visit their website 
-at https://www.google.com/maps/place/Le+biscuit+Douz/data=!4m7!3m6!1s0x125687f91f2285af:0xc420c0a8d3ca5723!8m2!3d33.4550441!4d9.0257661!16s%2Fg%2F11p68h_h0x!19sChIJr4UiH_mHVhIRI1fK06jAIMQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 660 540.</t>
+          <t>Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination in Douz that specializes in Patisserie and has received a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Souk Douz, the vibrant marketplace offering desert-themed souvenirs and handicrafts.
+Mid-Morning: Visiting Musee du Sahara de Douz, the archeological museum showcasing the rich history and culture of the Sahara desert.
+Midday: Trying local cuisine at "Chez Magic," a restaurant serving traditional Tunisian dishes with a 4.3-star rating.
+Afternoon: Enjoying scenic views at La Porta del Sahara, a highly-rated tourist attraction offering opportunities to explore the desert and attend festivals.
+Evening: Relaxing with a massage at a local spa or hotel, soothing tired muscles after a day of exploration.
+Night: Participating in a cultural event or activity at a local venue, immersing in the vibrant atmosphere and traditions of Douz.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Chez Magic" is a restaurant in Douz, Tunisia. It's located on Avenue des Martyrs and offers a variety of dishes, with a focus on traditional Tunisian cuisine. 
+The restaurant has a 4.3-star rating on Google with 3 reviews and is open from 10:00 AM to 10:00 PM. 
+It's located at coordinates (33.1380679, 9.0778647).
+Cafe Jdayda is a cafe located in Douz, Tunisia. It's open from 04:30 to 23:30 and is rated 5.0 stars. It's located at F24G+CC7 Cafe Jdayda, Rue Yahia Ben mhemed, Douz 4260 and can be contacted at 20 517 824.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum offers an immersive journey into the cultural heritage of the Sahara Desert. Located in Douz, Tunisia (33.4597601, 9.0244002), the museum showcases the richness and diversity of the Berber and Touareg people. Visitors can explore exhibits on traditional crafts, music, and storytelling, gaining insights into the nomadic lifestyle and the challenges facing the Sahara environment. With its close proximity to the Sahara Desert, the museum serves as a gateway to experiencing the beauty and wonder of this vast and captivating region.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10023,12 +14618,64 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a great Cafe, check out Cafe Azouza located at F24F+4J8 Cafe Azouza, Douz. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, call them at 98 765 850.</t>
+          <t>Cafe Azouza is a cafe located in Douz, Tunisia. It offers a variety of coffee and tea drinks, as well as pastries and snacks. The cafe is located at coordinates (33.4597601, 9.0244002).</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>Where in Douz can Cafe enthusiasts find a highly rated Cafe Azouza offering various categories and boasting an exceptional 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring historic Musee du Sahara de Douz to delve into the rich cultural heritage of the Sahara Desert.
+Mid-Morning: Trying local cuisine at Restaurant La Porte De Sahara, savoring the authentic flavors of traditional Tunisian dishes.
+Midday: Visiting La Porta del Sahara, a renowned tourist attraction, to experience the vibrant atmosphere and explore the desert surroundings.
+Afternoon: Experiencing cultural immersion at L'artisan house byt l'rtyzn, a highly-rated cafe des arts showcasing local crafts and offering a cozy ambiance.
+Evening: Enjoying scenic views at the Sahara Desert Tunisia g', witnessing the breathtaking beauty of the vast desert landscape.
+Night: Participating in an event at Festival De Douz, immersing in the vibrant cultural festival and experiencing the local traditions.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant La Porte De Sahara is a highly-rated (4.9 out of 5) restaurant located in Douz, Tunisia. It offers traditional Tunisian cuisine, including soups, entrees, briks, couscous, and vegetarian options. The restaurant has a wide selection of dishes and caters to the Muslim community during Ramadan. It is also well-known for its friendly staff and convenient location. The restaurant is open from 8:00 AM to 10:00 PM and closed on Fridays.
+Cafe L'orient Douz is a cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). Its main category is 'Cafe' and it offers 24/7 service. Cafe L'orient Douz has received 14 reviews and has a rating of 4.9.
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero gusto is a 5-star Pizzeria located in douz.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Le Saharien Paradise, located in Douz, offers a comfortable stay in a hotel setting (lon: 9.0260644, lat: 33.4457294). With a 4-star rating, this place is well-regarded for its hospitality and services.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10138,12 +14785,65 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Station-service, check out Station Service TotalEnergies DOUZ located at Avenue Habib Bourguiba, Douz 4260. This destination offers a range of Station-service to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 33.4662, 9.02393. For more details, visit their website at https://services.totalenergies.tn/ or call them at 75 470 242.</t>
+          <t>Station Service TotalEnergies DOUZ is located at Avenue Habib Bourguiba, Douz 4260, Tunisia. It offers 24/7 gas station services with a rating of 4.3 out of 5 based on 31 reviews.</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>Where in Douz can you find a highly rated Station-service with a top rating of 4.3?</t>
+          <t>Day Plan:
+Morning: Explore Souk Douz, a bustling marketplace offering traditional and modern goods.
+Mid-Morning: Visit Musee du Sahara de Douz for a glimpse into the Sahara's rich history and culture.
+Midday: Indulge in local cuisine at Restaurant SAIF, known for its diverse menu and warm ambiance.
+Afternoon: Take a guided tour of Sahara Douz, an elegant hotel with luxurious amenities and a rejuvenating spa.
+Evening: Experience the lively desert ambiance at La Porta del Sahara, a popular tourist attraction with festivals.
+Night: Relax and unwind with a stay at Maison Proche de Desert, a desert guest house offering camel rides and a unique desert experience.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Discover Restaurant SAIF, a highly-rated restaurant located in Douz at the coordinates (34.1070436, 35.8976343). This establishment offers a diverse menu of dishes, catering to various tastes and preferences. Its convenient work hours, from 8:00 am to 11:00 pm, make it an ideal dining destination throughout the day. With its warm ambiance and friendly staff, Restaurant SAIF promises a memorable culinary experience for all who visit.
+Cafeteria Africa, located in Douz, is a cafe offering a relaxing ambiance with a 4.0-star rating. Open daily from 6 AM to 8 PM, the cafe offers a wide range of beverages and snacks in a cozy setting.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Nestled in the heart of the mesmerizing Sahara Desert, Sahara Douz welcomes guests with its elegant ambiance and luxurious amenities. This exquisite hotel boasts an array of facilities, including a rejuvenating spa, sparkling indoor and outdoor swimming pools, and a selection of dining options offering tantalizing culinary delights. Situated in the picturesque location of Douz (43.934563986927, -70.328186010163), Sahara Douz is the perfect oasis for travelers seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10245,12 +14945,65 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out station staroil douz located at station staroil douz, Unnamed Road, Douz. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.4597601, 9.0244002. For more details, visit their website at https://www.google.com/maps/place/station+staroil+douz/data=!4m7!3m6!1s0x1256878f3af185d1:0x7e3aefe70284d635!8m2!3d33.459559!4d9.0441178!16s%2Fg%2F11gglqqxj_!19sChIJ0YXxOo-HVhIRNdaEAufvOn4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 039 334.</t>
+          <t>Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination in Douz that specializes in Station-service, accessible via the GPS coordinates 33.4597601, 9.0244002?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Douz for unique souvenirs and local crafts.
+Mid-Morning: Visit Musee du Sahara de Douz to delve into the captivating history and culture of the Sahara Desert.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant Le Bon Jour 12 for a delectable lunch.
+Afternoon: Embark on a guided camel ride through the golden sands of the Sahara Desert with The Sahara Desert Tunisia g'.
+Evening: Witness the vibrant atmosphere and traditional entertainment at the renowned La Porta del Sahara.
+Night: Relax and rejuvenate with a serene desert camping experience under the star-lit sky at Maison Proche de Desert.</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara is a restaurant located in the city of Douz, Tunisia and is open 24 hours a day. It is most popular for its lamb dishes.
+Cafe de la Republique is a café located in Douz, Tunisia. It is open from 5:30 AM to 1:00 AM, and serves a variety of drinks and snacks. The café is rated 4.0 stars on Google, and has received 7 reviews. It is located at the coordinates (33.4555822, 9.0253572).
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+La Maison du voyageur is a 4.5-star hotel located in douz, Tunisia. This hotel is specialised in hotel stays and offers a wide range of services. It has received 13 reviews with an average rating of 4.5, highlighting its excellent quality. The hotel's phone number is 98 661 438 and its website is not available.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10356,12 +15109,70 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you find yourself in douz and seeking a reliable transportation service, consider Station Louage Douz, situated at F25C+5VX Station Louage Douz, Douz. This highly rated service provider serves transportation needs with a customer rating of 3.8. The establishment operates from 09:00-17:00 on weekdays, but remains closed on Monday, Tuesday, Saturday, and Sunday. You may reach them via phone at 94 182 860 or visit their website for further details.</t>
+          <t>Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated transportation service open during the weekdays in Douz, Tunisia?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Exploring Souk Douz: Immerse yourself in the vibrant atmosphere of Douz's bustling marketplace, discovering handmade crafts, authentic souvenirs, and local delicacies.
+**Mid-Morning:**
+* Trying local cuisine at Patisserie Abderrahim: Delight in delicious pastries at this highly-rated spot, specializing in traditional Tunisian sweets.
+**Midday:**
+* Visiting La Porta del Sahara: Explore this popular tourist attraction, offering stunning views of the desert and insights into local culture and traditions.
+**Afternoon:**
+* Relaxing with a camel ride in the Sahara Desert: Embark on an unforgettable adventure, exploring the vast expanse of the majestic Sahara on the back of a camel.
+**Evening:**
+* Participating in a Saharan festival: Experience the vibrant culture of Douz by attending a traditional festival, featuring music, dancing, and local cuisine.
+**Night:**
+* Enjoying scenic views at the Musee du Sahara de Douz: Admire breathtaking views of the desert under the starry night sky while delving into the history and heritage of the Sahara region.</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Patisserie Abderrahim", located in Douz (coordinates: (33.2432696, -8.5258896)), is a highly-rated (5.0 out of 5 based on 4 reviews) restaurant that specializes in pastries. Its exact offerings are not specified in the provided information.
+Dr lswq Dar El Souk is a 4.4 stars rated Cafe located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+**Hôtel 20 mars**, located in Douz, Tunisia (coordinates: 33.456008, 9.0243538), is a highly-rated hotel with a 4.1/5 rating based on 82 reviews. It features comfortable rooms, excellent service, and a convenient location, making it an ideal choice for travelers seeking an exceptional stay in the heart of the Sahara desert.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in the heart of the Sahara Desert in Douz, is a renowned heritage museum that offers an immersive journey into the rich history and culture of the region. Its collection showcases artifacts, tools, and documents that depict the lifestyle, traditions, and beliefs of the desert's inhabitants. The museum's prime location (33.4597601, 9.0244002) provides visitors with the unique opportunity to explore the museum and then venture into the vast and enchanting Sahara Desert.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10463,13 +15274,71 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a reliable gas station, check out Station service Agil DOUZ located at F2FF+W5Q Station service Agil DOUZ, C206, Douz. 
-This top-rated destination is open 24/7 making it convenient for drivers with different schedules. With a rating of 3.4, it's a must-visit spot for your fueling needs. For more information, visit their website or call them at 75 470 128.</t>
+          <t>Station service Agil DOUZ, a gas station located at coordinates (33.4597601, 9.0244002) in Douz, Tunisia, offers fuel services 24 hours a day.</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>To fill your car at a top-rated and conveniently located gas station open 24/7, where in Douz should you go?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the vibrant Souk Douz, immersing yourself in the local culture and discovering unique handicrafts.
+**Mid-Morning:**
+* Visit the Musee du Sahara de Douz to delve into the rich history and traditions of the Sahara Desert.
+**Midday:**
+* Try local cuisine at MqH~, a cozy cafe offering a diverse menu with a 4.8 rating.
+**Afternoon:**
+* Enjoy a refreshing dip in the outdoor pool at Sun Palm Douz, while savoring the tranquility of the hotel's surroundings.
+**Evening:**
+* Take a guided tour of La Porta del Sahara to experience the desert's beauty and learn about its festivals.
+**Night:**
+* Relax at Magic Food, a highly-rated family restaurant, and savor traditional dishes in a cozy and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Sahara is a restaurant located in the city of Douz, Tunisia and is open 24 hours a day. It is most popular for its lamb dishes.
+MqH~ is a popular cafe in Douz, Tunisia, with a 4.8 rating based on 4 reviews. It features a cozy atmosphere and a menu with various cafe-style offerings. Geographically, it is located at 33.4597601 latitude and 9.0244002 longitude and can be found at F25C+223. Its primary category is Cafe.
+**Magic Food:**
+Magic Food is a highly-rated family restaurant located in Douz, Tunisia. With a 4.2-star rating and positive reviews, it offers a unique dining experience. The restaurant specializes in traditional dishes, catering to families seeking a casual and enjoyable atmosphere. Situated at (33.4597601, 9.0244002), Magic Food is easily accessible and serves as a convenient meeting point for locals and visitors alike.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Le Bon Jour 12 is a fast-food restaurant located in Douz, Tunisia. The restaurant is rated 5.0 out of 5 stars by Google users and has received positive reviews for its food and service. The restaurant is known for its quick and affordable meals, making it a popular choice for locals and tourists alike.
+Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+Located at the geographic coordinates (33.4522958, 9.0182292) in Douz, Musee du Sahara de Douz is an archeological museum that offers visitors a glimpse into the rich history and culture of the Sahara desert. The museum boasts a collection of artifacts and exhibits that showcase the diverse lives and traditions of the people who have inhabited this region for centuries. Its convenient opening hours from 7am to 4:30pm make it easily accessible to tourists.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Station staroil douz is a gas station located in douz, Tunisia. It offers a variety of services, including fuel, repairs, and car washes. The station is located at 33.4597601, 9.0244002 and has a rating of 4.3 out of 5 stars.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10579,12 +15448,65 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a gas station, check out Station Ola Energy Douz located at F2FF+M6G Station Ola Energy Douz, Douz. This top-rated destination is perfect for Station-service lovers and offers a range of Station-service to choose from. With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day and closed on []. To get there, use these GPS coordinates: 0.3766629, 9.4548032. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100038684831811 or call them at 75 471 424.</t>
+          <t>This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>Where is the highly rated Station Ola Energy Douz, a popular destination for its wide selection of station-services and convenient 24-hour availability?</t>
+          <t>Day Plan:
+Morning: Exploring Sahara Desert Tunisia g'
+Mid-Morning: Trying local cuisine at Sahara is a 5-star rated restaurant,
+Midday: Visiting La Porta del Sahara
+Afternoon: Enjoying camel rides and tent experiences
+Evening: Engaing in cultural immersion at Musee du Sahara de Douz
+Night: Relaxing at Sun Palm Douz</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Sahara is a 5-star rated restaurant located in Douz, Tunisia, with coordinates (33.4347514, 9.0200775). It offers a variety of dining options and is known for its excellent service and delicious food.
+Cafe Total Walid is a cafe located in Douz, Tunisia. It has a 4.0 rating based on 1 review. The cafe offers a variety of food and drinks, and is located near the center of Douz. The cafe is open every day of the week and its latitude and longitude are 33.4597601, 9.0244002.
+**Restaurant pizza Venezia : a Family Restaurant in Douz**
+Enjoy delicious pizzas in the heart of Douz at Restaurant pizza Venezia. With a 4.1-star rating and 7 reviews, this family restaurant has become a popular destination for locals and tourists alike. Located on latitude 43.766761 and longitude -80.058194, the restaurant offers a cozy ambiance and an inviting atmosphere. Call ahead at +28 604 035 to make a reservation or visit their website for more information.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero gusto is a 5-star Pizzeria located in douz.
+King is a 5-star rated fast food restaurant located in douz, Tunisia. It is the only restaurant owned by King (proprietaire). The exact location of the restaurant is at the coordinates (33.4597601, 9.0244002).
+Located in Douz, Sun Palm Douz is a hotel featuring 4669 reviews with an average rating of 4.7/5. It offers casual-style rooms and suites, an outdoor pool, a restaurant, and a hammam (Turkish bath). Its coordinates are (33.1380679, 9.0778647).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10682,12 +15604,70 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for something fun to do, check out Gare routiere. This top-rated destination is perfect for Arret de bus lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 31.9292467, -4.4260977.</t>
+          <t>Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>Where in Douz can you visit a top-rated Arret de bus destination known as Gare routiere with GPS coordinates 31.9292467, -4.4260977?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the vibrant La Porta del Sahara, a popular tourist attraction.
+**Mid-Morning:**
+* Visit the Musee du Sahara de Douz to immerse yourself in the rich history of the Sahara.
+**Midday:**
+* Savor authentic Tunisian cuisine at Dar Ali Baba, a highly-rated restaurant offering a cozy ambiance.
+**Afternoon:**
+* Take a guided tour of the Sahara Museum to delve into the region's culture and traditions.
+**Evening:**
+* Engage in a unique desert experience at Maison Proche de Desert, a popular guest house known for its camel rides and desert exploration.
+**Night:**
+* Enjoy the lively atmosphere of Souk Douz, a bustling marketplace offering an array of handmade crafts, souvenirs, and local delicacies.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Dar Ali Baba is a highly-rated restaurant with a 5.0 rating based on one review. Located in Douz at (33.4597601, 9.0244002), this restaurant specializes in providing dining services and falls under the main category of Restaurant.
+Cafe de la Republique is a café located in Douz, Tunisia. It is open from 5:30 AM to 1:00 AM, and serves a variety of drinks and snacks. The café is rated 4.0 stars on Google, and has received 7 reviews. It is located at the coordinates (33.4555822, 9.0253572).
+Magic food is a family restaurant located in Douz, Tunisia. It offers a variety of dishes in a cozy ambiance. The restaurant has a rating of 4.2 stars on Google, and is open from Monday to Sunday. It is located at the coordinates (33.4597601, 9.0244002).
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Le biscuit Douz is a 5-star rated patisserie located in the souk of Douz (33.1380679, 9.0778647). Their main offer is pastries and they can be contacted by phone at 28 660 540.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Chappati Iheb is a fast food restaurant located in Douz, Tunisia, offering a variety of delicious meals. Located at the coordinates (33.4597601, 9.0244002), the restaurant has received 5.0 stars from 2 reviews, indicating the high quality of its food and service.
+Sahara Douz is a 4-star hotel located in Douz, Tunisia, offering an elegant castle-like ambiance. The hotel features a restaurant, bars, indoor and outdoor pools, a spa, and various amenities to ensure a comfortable stay. With over 950 reviews and a rating of 4.0, Sahara Douz is situated near the coordinates (43.934563986927, -70.328186010163) and is easily accessible via its website (http://www.saharadouz.com/).
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum, located in Douz (longitude: 9.0244002, latitude: 33.4597601), showcases the rich heritage of the Sahara desert. It offers visitors a captivating journey through the region's history, culture, and traditions. The museum is open from 9:30 AM to 4:30 PM every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10789,12 +15769,65 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in douz and looking for a top-rated Station-service, check out Off Road Service located at F25G+FGQ Off Road Service, Douz. This must-visit spot offers a range of Station-service to choose from and has a rating of 5.0. To get there, use these GPS coordinates: 46.401123, -91.802139. You can call them at 99 210 436 for more details.</t>
+          <t>Off Road Service is located in Douz, at the coordinates (46.401123, -91.802139). It offers gas station services and has received 2 reviews with a rating of 5.0.</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated Station-service in Douz, known for its exceptional services, located at F25G+FGQ Off Road Service with GPS coordinates 46.401123, -91.802139?</t>
+          <t>Day Plan:
+Morning: Explore the sprawling Souk Douz, a renowned marketplace teeming with desert-inspired souvenirs.
+Mid-Morning: Indulge in local cuisine at Restaurant SAIF, known for its delectable dishes and convenient location.
+Midday: Visit the Musee du Sahara de Douz, a fascinating museum that unveils the rich archaeological heritage of the Sahara.
+Afternoon: Embark on a guided tour of La Porta del Sahara, a popular tourist attraction offering insights into the desert's captivating landscape and local festivals.
+Evening: Treat yourself to a relaxing experience with a traditional Hammam at a local spa or hotel.
+Night: Attend a cultural performance at the Sahara Desert Tunisia g, a well-reviewed travel agency offering immersive desert experiences.</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant SAIF in Douz, Tunisia, is a popular dining destination offering a variety of dishes. Its convenient location at F25G+RH2 makes it easy to access, and its hours of operation from 8 AM to 11 PM ensure that patrons can enjoy their meals at their leisure. The restaurant's rating of 4.0 out of 5 stars is a testament to its commitment to providing guests with a satisfying experience.
+Cafeteria Africa, located in Douz, is a cafe offering a relaxing ambiance with a 4.0-star rating. Open daily from 6 AM to 8 PM, the cafe offers a wide range of beverages and snacks in a cozy setting.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Pizzeria Marella is a pizzeria located in Douz, Tunisia, offering delicious pizzas made with fresh and local ingredients. It is known for its cozy atmosphere and friendly staff. With a rating of 5.0, Pizzeria Marella is a great place to enjoy a tasty pizza.
+Fast Food KLT Sry`@ is a highly-rated fast food restaurant in Douz, Tunisia. It offers a variety of dishes, and is located at F248+RHR, Douz (33.4597601, 9.0244002). Customers praise its excellent service and delicious food, giving it an average rating of 4.7 out of 5 stars.
+Hotel 20 mars is a 4.1-rated hotel located in Douz, Tunisia. This hotel is known for its great value for money, with many reviewers mentioning its affordable prices. The hotel is also conveniently located near the desert, making it a great base for exploring the area. The rooms are clean and comfortable, and the staff are friendly and helpful. The hotel also offers a variety of amenities, including a swimming pool, a restaurant, and a bar.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a renowned marketplace located in Douz, Tunisia, situated at coordinates (33.4558188, 9.0247194). Its popularity stems from its unique offerings, including a vibrant collection of desert-themed souvenirs, handcrafted by skilled artisans. The market serves as a hub for tourists seeking authentic mementos of their travels. With its bustling atmosphere and friendly vendors, Souk Douz offers an immersive cultural experience amidst the captivating landscape of the Tunisian desert.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, offers a glimpse into the rich history and culture of the Sahara Desert. With its convenient location at coordinates (33.4597601, 9.0244002), the museum is easily accessible for visitors. It is open from Tuesday to Sunday from 9:30 am to 4:30 pm, excluding Mondays. The Sahara Museum boasts a 4.7-star rating based on reviews, showcasing the positive experiences of its visitors.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10888,12 +15921,65 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in Douz, check out Louage located at Louage, C206, Douz. This top-rated destination is perfect for public transport lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Louage/data=!4m7!3m6!1s0x125687f072eb0edb:0x3972a6820e2b5481!8m2!3d33.4581282!4d9.022404!16s%2Fg%2F1thjq9pt!19sChIJ2w7rcvCHVhIRgVQrDoKmcjk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at . To get there, use these GPS coordinates: 33.4597601, 9.0244002.</t>
+          <t>Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated public transport destination with a 5.0 rating in Douz, perfect for those who prefer using public transportation?</t>
+          <t>Day Plan:
+Morning: Explore the bustling Souk Douz, immerse yourself in local culture, and discover unique souvenirs.
+Mid-Morning: Visit the Sahara Museum to delve into the rich heritage and traditions of the Sahara Desert.
+Midday: Delight in authentic Tunisian cuisine at Restaurant SAIF, known for its diverse offerings.
+Afternoon: Embark on a captivating guided tour of the Musee du Sahara de Douz, uncovering the region's fascinating archaeological past.
+Evening: As the sun sets, take a relaxing stroll along the scenic Sahara Desert, marveling at the tranquil beauty of the natural surroundings.
+Night: Indulge in a traditional Sahrawi dinner at Maison Proche de Desert, savoring the flavors of freshly baked bread and local delicacies.</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Restaurant SAIF in Douz, Tunisia, is a popular dining destination offering a variety of dishes. Its convenient location at F25G+RH2 makes it easy to access, and its hours of operation from 8 AM to 11 PM ensure that patrons can enjoy their meals at their leisure. The restaurant's rating of 4.0 out of 5 stars is a testament to its commitment to providing guests with a satisfying experience.
+Cafe Saraya is a popular spot in Douz, Tunisia, offering a cozy atmosphere and a wide range of beverages. It's conveniently located at (33.4597601, 9.0244002) and is open 24 hours a day serving coffee, tea, and other drinks. With a 5-star rating and positive reviews, Cafe Saraya is a great place to relax and enjoy a cup of your favorite drink.
+**Restaurant Pizzeria Venezia**
+Nestled in the heart of Douz, this family-friendly restaurant serves up delectable pizzas that are sure to tantalize your taste buds. Located at the coordinates (43.766761, -80.058194), it offers a cozy ambiance with a focus on serving authentic Italian cuisine.
+L'artisan house byt l'rtyzn is a highly-rated cafe des arts located in Douz, Tunisia. It has a rating of 5.0 based on 6 reviews. The cafe's geographical coordinates are (33.4597601, 9.0244002). The cafe's website is https://www.facebook.com/profile.php%3Fid%3D61554449017414. The cafe's phone number is 25 179 349 and it is located at F25C+8W3 L'artisan house byt l'rtyzn, Douz.
+Overdose Pastry Coffee Shop in Douz, Tunisia offers a delightful culinary experience with its exquisite pastries and coffee. Located at coordinates (33.1380679, 9.0778647), it operates daily from 6 AM to 9 PM. With an impressive 4.4-star rating based on 5 reviews, the establishment is highly regarded for its offerings.
+Vero Gusto is a Pizzeria located in Douz, Tunisia. It has a rating of 5.0 out of 5 based on 4 reviews.
+Le Bon Jour 12 is a fast food restaurant located in the heart of Douz, Tunisia. It offers a wide variety of delicious dishes, including sandwiches, pizzas, and salads. The restaurant is conveniently located near the city's main attractions, making it a great place to stop for a bite to eat after a day of exploring. The restaurant has a 5.0 rating on Google, indicating that it is a popular choice among locals and tourists alike.
+Nestled in the heart of the Sahara Desert, Sahara Douz is an elegant hotel offering a range of luxurious amenities. With its opulent chateau-like ambiance, this 4-star establishment boasts indoor and outdoor pools, a rejuvenating spa, and delectable restaurants and bars. Located in the captivating city of Douz, Sahara Douz is an ideal oasis for those seeking an unforgettable desert experience.
+Located in Douz, Maison Proche de Desert is a popular guest house in the Sahara Desert with a 4.5-star rating based on 58 reviews. It offers a unique desert experience with options for camel rides and exploring the surrounding sand dunes. The guest house is known for its authentic tents, cozy atmosphere, and delicious local cuisine, especially its freshly baked bread.
+Souk Douz is a bustling marketplace located in the heart of the picturesque desert town of Douz, Tunisia. This vibrant market offers a unique blend of traditional and modern goods, catering to both locals and tourists alike. With its convenient 24-hour accessibility, it is an ideal destination for exploring the cultural heritage of the region. Discover an array of handmade crafts, authentic souvenirs, and local delicacies, while immersing yourself in the vibrant atmosphere of this lively souk.
+The Sahara Desert Tunisia g' is a well-reviewed travel agency located in Souk Douz, Tunisia, with a 4.7 rating out of 122 reviews. The agency offers camel rides, tent experiences, and desert exploration in the Sahara Desert. It is open 24/7 and can be reached by phone or email.
+La Porta del Sahara is a highly rated tourist attraction located in Douz, Tunisia. Open 24 hours a day, this attraction has received 60 reviews with an average rating of 4.2. It is a popular destination for those interested in exploring the desert and attending festivals.
+In the heart of Douz, the Musee du Sahara de Douz invites you on a journey through time to discover the rich archaeological heritage of the Sahara. Located at coordinates (33.4522958,9.0182292), the museum boasts a collection of artifacts and exhibits that bring the region's past to life. With a user rating of 4.3, visitors praise its unique insights into the lives of the Sahara's inhabitants.
+The Sahara Museum in Douz, Tunisia, is a heritage museum dedicated to preserving and showcasing the rich culture and history of the Sahara Desert and its people. Located at coordinates (33.4597601, 9.0244002), the museum offers a comprehensive glimpse into the traditional way of life, customs, and traditions of the Sahrawi people. With a 4.7-star rating based on 6 reviews, the museum is open from 9:30 am to 4:30 pm every day except Mondays.
+Douz is a renowned town in Tunisia located at 33.4597601 latitude and 9.0244002 longitude. It stands out for its vibrant construction industry, offering a range of real estate development services. The town is particularly known for its lively festivals, which attract visitors from across the region.
+This location, with an impressive rating of 4.8, is the Station Ola Energy Douz. Situated at the coordinates (0.3766629, 9.4548032), in the bustling city of Douz, it's conveniently open 24 hours a day to cater to your fueling needs. Although there is no specific description provided, this station is likely to offer a range of services, including fuel, lubricants, and other automotive essentials. With its central location and extended hours of operation, Station Ola Energy Douz aims to provide a seamless and efficient fueling experience for motorists in Douz.
+Station Louage Douz is a transportation service located in Douz, Tunisia. It offers bus services to various destinations, and is open from 9am to 5pm, Tuesday through Friday. The station is highly rated, with a 3.8 out of 5 star rating.
+Gare routiere, located in Douz (coordinates: 31.9292467, -4.4260977), is a bus stop that offers transportation services.
+Louage is a public transportation stop located in Douz, Tunisia, at the coordinates (33.4597601, 9.0244002). It has a rating of 5.0 based on 2 reviews. Its primary category is public transportation stop, and no other categories are available. No additional information, such as a description, website, owner details, featured image, working hours, closure days, phone number, address, review keywords, or link, is provided.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
